--- a/Model Calculations.xlsx
+++ b/Model Calculations.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2122a01115dfea8f/Projects/Quantitative Finance/Earnings-Momentum-Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1D64DC5-0E6D-4747-9C38-FEA46FE93DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{F1D64DC5-0E6D-4747-9C38-FEA46FE93DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3E85FFC-4D5D-4787-B36F-73D39447183C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{318E3901-F0E8-4C5D-A3E3-62E867DF8979}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{318E3901-F0E8-4C5D-A3E3-62E867DF8979}"/>
   </bookViews>
   <sheets>
     <sheet name="returns_tracker (1)" sheetId="1" r:id="rId1"/>
     <sheet name="Model Calculations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -43,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="633">
   <si>
     <t>Ticker</t>
   </si>
@@ -1912,15 +1925,46 @@
   </si>
   <si>
     <t>Return</t>
+  </si>
+  <si>
+    <t>Total Invested</t>
+  </si>
+  <si>
+    <t>Weeks</t>
+  </si>
+  <si>
+    <t>Avg Investment/Week</t>
+  </si>
+  <si>
+    <t>Total Return</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>ROI w/ Avg Investment</t>
+  </si>
+  <si>
+    <t>ROI w/ 96k</t>
+  </si>
+  <si>
+    <t>Normal Model</t>
+  </si>
+  <si>
+    <t>Low P/E Model</t>
+  </si>
+  <si>
+    <t>Difference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -2401,14 +2445,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -2789,7 +2836,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S256" sqref="S256"/>
     </sheetView>
   </sheetViews>
@@ -26510,32 +26557,32 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E69669B-DF47-423B-828D-7E8BA6AE8455}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L290"/>
+  <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="7"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E1" t="s">
@@ -26544,24 +26591,8 @@
       <c r="F1" t="s">
         <v>622</v>
       </c>
-      <c r="I1" cm="1">
-        <f t="array" ref="I1:I13">_xlfn.UNIQUE(C2:C254)</f>
-        <v>0</v>
-      </c>
-      <c r="J1" s="3">
-        <f>SUMIF(C:C,I1,E:E)</f>
-        <v>192000</v>
-      </c>
-      <c r="K1">
-        <f>COUNTIF(C:C,I1)</f>
-        <v>96</v>
-      </c>
-      <c r="L1" s="3">
-        <f>SUMIF(C:C,I1,F:F)</f>
-        <v>11488</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -26572,7 +26603,7 @@
         <f>INT((B2-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>-5.0999999999999997E-2</v>
       </c>
       <c r="E2" s="4">
@@ -26582,23 +26613,15 @@
         <f>E2*D2</f>
         <v>-102</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <f t="shared" ref="J2:J13" si="0">SUMIF(C:C,I2,E:E)</f>
-        <v>56000</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ref="K2:K13" si="1">COUNTIF(C:C,I2)</f>
-        <v>28</v>
-      </c>
-      <c r="L2" s="3">
-        <f t="shared" ref="L2:L13" si="2">SUMIF(C:C,I2,F:F)</f>
-        <v>-164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>623</v>
+      </c>
+      <c r="I2" s="4">
+        <f>SUM(E:E)</f>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -26606,36 +26629,28 @@
         <v>45964</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="3">INT((B3-$B$2)/7)</f>
+        <f>INT((B3-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="E3" s="4">
         <v>2000</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F66" si="4">E3*D3</f>
+        <f>E3*D3</f>
         <v>64</v>
       </c>
+      <c r="H3" t="s">
+        <v>624</v>
+      </c>
       <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3">
-        <f t="shared" si="0"/>
-        <v>34000</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="L3" s="3">
-        <f t="shared" si="2"/>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <f>MAX(C:C)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -26643,36 +26658,28 @@
         <v>45964</v>
       </c>
       <c r="C4">
-        <f t="shared" si="3"/>
+        <f>INT((B4-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <v>-7.1999999999999995E-2</v>
       </c>
       <c r="E4" s="4">
         <v>2000</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="4"/>
+        <f>E4*D4</f>
         <v>-144</v>
       </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3">
-        <f t="shared" si="0"/>
-        <v>16000</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L4" s="3">
-        <f t="shared" si="2"/>
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>625</v>
+      </c>
+      <c r="I4" s="6">
+        <f>I2/I3</f>
+        <v>39285.714285714283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -26680,36 +26687,28 @@
         <v>45964</v>
       </c>
       <c r="C5">
-        <f t="shared" si="3"/>
+        <f>INT((B5-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <v>-0.23499999999999999</v>
       </c>
       <c r="E5" s="4">
         <v>2000</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="4"/>
+        <f>E5*D5</f>
         <v>-470</v>
       </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>626</v>
+      </c>
+      <c r="I5" s="6">
+        <f>SUM(F:F)</f>
+        <v>22014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -26717,36 +26716,28 @@
         <v>45964</v>
       </c>
       <c r="C6">
-        <f t="shared" si="3"/>
+        <f>INT((B6-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <v>0.127</v>
       </c>
       <c r="E6" s="4">
         <v>2000</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="4"/>
+        <f>E6*D6</f>
         <v>254</v>
       </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="0"/>
-        <v>24000</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L6" s="3">
-        <f t="shared" si="2"/>
-        <v>2784</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>627</v>
+      </c>
+      <c r="I6" s="5">
+        <f>I5/I2</f>
+        <v>4.0025454545454545E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -26754,36 +26745,28 @@
         <v>45964</v>
       </c>
       <c r="C7">
-        <f t="shared" si="3"/>
+        <f>INT((B7-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <v>-4.7E-2</v>
       </c>
       <c r="E7" s="4">
         <v>2000</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="4"/>
+        <f>E7*D7</f>
         <v>-94</v>
       </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="0"/>
-        <v>18000</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="L7" s="3">
-        <f t="shared" si="2"/>
-        <v>904</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>628</v>
+      </c>
+      <c r="I7" s="5">
+        <f>I5/I4</f>
+        <v>0.56035636363636365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -26791,36 +26774,28 @@
         <v>45964</v>
       </c>
       <c r="C8">
-        <f t="shared" si="3"/>
+        <f>INT((B8-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="7">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E8" s="4">
         <v>2000</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="4"/>
+        <f>E8*D8</f>
         <v>90</v>
       </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="3">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>629</v>
+      </c>
+      <c r="I8" s="5">
+        <f>I5/96000</f>
+        <v>0.2293125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -26828,36 +26803,21 @@
         <v>45964</v>
       </c>
       <c r="C9">
-        <f t="shared" si="3"/>
+        <f>INT((B9-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="7">
         <v>0.17799999999999999</v>
       </c>
       <c r="E9" s="4">
         <v>2000</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="4"/>
+        <f>E9*D9</f>
         <v>356</v>
       </c>
-      <c r="I9">
-        <v>9</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
-        <f t="shared" si="2"/>
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -26865,1992 +26825,2243 @@
         <v>45964</v>
       </c>
       <c r="C10">
-        <f t="shared" si="3"/>
+        <f>INT((B10-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="7">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="E10" s="4">
         <v>2000</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="4"/>
+        <f>E10*D10</f>
         <v>164</v>
       </c>
+      <c r="H10" t="s">
+        <v>630</v>
+      </c>
       <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>266</v>
+      </c>
+      <c r="J10">
+        <v>58.42</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
-        <f t="shared" si="2"/>
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.16</v>
+      </c>
+      <c r="L10">
+        <v>10.97</v>
+      </c>
+      <c r="M10">
+        <v>41.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1">
         <v>45965</v>
       </c>
       <c r="C11">
-        <f t="shared" si="3"/>
+        <f>INT((B11-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="5">
-        <v>2E-3</v>
+      <c r="D11" s="7">
+        <v>0.185</v>
       </c>
       <c r="E11" s="4">
         <v>2000</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>E11*D11</f>
+        <v>370</v>
+      </c>
+      <c r="H11" t="s">
+        <v>631</v>
       </c>
       <c r="I11">
-        <v>11</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>144</v>
+      </c>
+      <c r="J11">
+        <v>61.33</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L11" s="3">
-        <f t="shared" si="2"/>
-        <v>-130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.45</v>
+      </c>
+      <c r="L11">
+        <v>13.52</v>
+      </c>
+      <c r="M11">
+        <v>52.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1">
         <v>45965</v>
       </c>
       <c r="C12">
-        <f t="shared" si="3"/>
+        <f>INT((B12-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="5">
-        <v>-7.3999999999999996E-2</v>
+      <c r="D12" s="7">
+        <v>0.313</v>
       </c>
       <c r="E12" s="4">
         <v>2000</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="4"/>
-        <v>-148</v>
+        <f>E12*D12</f>
+        <v>626</v>
+      </c>
+      <c r="H12" t="s">
+        <v>632</v>
       </c>
       <c r="I12">
-        <v>12</v>
-      </c>
-      <c r="J12" s="3">
+        <f>I11-I10</f>
+        <v>-122</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:M12" si="0">J11-J10</f>
+        <v>2.9099999999999966</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="0"/>
-        <v>44000</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="L12" s="3">
-        <f t="shared" si="2"/>
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.29</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>2.5499999999999989</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1">
         <v>45965</v>
       </c>
       <c r="C13">
-        <f t="shared" si="3"/>
+        <f>INT((B13-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="5">
-        <v>9.8000000000000004E-2</v>
+      <c r="D13" s="7">
+        <v>0.17399999999999999</v>
       </c>
       <c r="E13" s="4">
         <v>2000</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="4"/>
-        <v>196</v>
-      </c>
-      <c r="I13">
-        <v>13</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="0"/>
-        <v>82000</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="L13" s="3">
-        <f t="shared" si="2"/>
-        <v>606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <f>E13*D13</f>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1">
         <v>45965</v>
       </c>
       <c r="C14">
-        <f t="shared" si="3"/>
+        <f>INT((B14-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="5">
-        <v>-0.104</v>
+      <c r="D14" s="7">
+        <v>0.13900000000000001</v>
       </c>
       <c r="E14" s="4">
         <v>2000</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="4"/>
-        <v>-208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <f>E14*D14</f>
+        <v>278</v>
+      </c>
+      <c r="H14" cm="1">
+        <f t="array" ref="H14:H26">_xlfn.UNIQUE(C2:C254)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <f>SUMIF(C:C,H14,E:E)</f>
+        <v>192000</v>
+      </c>
+      <c r="J14">
+        <f>COUNTIF(C:C,H14)</f>
+        <v>96</v>
+      </c>
+      <c r="K14" s="3">
+        <f>SUMIF(C:C,H14,F:F)</f>
+        <v>11486</v>
+      </c>
+      <c r="L14" s="8">
+        <f>K14/I14</f>
+        <v>5.982291666666667E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1">
         <v>45965</v>
       </c>
       <c r="C15">
-        <f t="shared" si="3"/>
+        <f>INT((B15-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="5">
-        <v>-4.2000000000000003E-2</v>
+      <c r="D15" s="7">
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E15" s="4">
         <v>2000</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="4"/>
-        <v>-84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <f>E15*D15</f>
+        <v>-10</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <f>SUMIF(C:C,H15,E:E)</f>
+        <v>56000</v>
+      </c>
+      <c r="J15">
+        <f>COUNTIF(C:C,H15)</f>
+        <v>28</v>
+      </c>
+      <c r="K15" s="3">
+        <f>SUMIF(C:C,H15,F:F)</f>
+        <v>-166</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" ref="L15:L26" si="1">K15/I15</f>
+        <v>-2.9642857142857144E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="B16" s="1">
         <v>45965</v>
       </c>
       <c r="C16">
-        <f t="shared" si="3"/>
+        <f>INT((B16-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="5">
-        <v>-2.9000000000000001E-2</v>
+      <c r="D16" s="7">
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E16" s="4">
         <v>2000</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="4"/>
-        <v>-58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <f>E16*D16</f>
+        <v>52</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3">
+        <f>SUMIF(C:C,H16,E:E)</f>
+        <v>34000</v>
+      </c>
+      <c r="J16">
+        <f>COUNTIF(C:C,H16)</f>
+        <v>17</v>
+      </c>
+      <c r="K16" s="3">
+        <f>SUMIF(C:C,H16,F:F)</f>
+        <v>2700</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="1"/>
+        <v>7.9411764705882348E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B17" s="1">
         <v>45965</v>
       </c>
       <c r="C17">
-        <f t="shared" si="3"/>
+        <f>INT((B17-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="5">
-        <v>0.05</v>
+      <c r="D17" s="7">
+        <v>0.113</v>
       </c>
       <c r="E17" s="4">
         <v>2000</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <f>E17*D17</f>
+        <v>226</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
+        <f>SUMIF(C:C,H17,E:E)</f>
+        <v>16000</v>
+      </c>
+      <c r="J17">
+        <f>COUNTIF(C:C,H17)</f>
+        <v>8</v>
+      </c>
+      <c r="K17" s="3">
+        <f>SUMIF(C:C,H17,F:F)</f>
+        <v>1224</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="1"/>
+        <v>7.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B18" s="1">
         <v>45965</v>
       </c>
       <c r="C18">
-        <f t="shared" si="3"/>
+        <f>INT((B18-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="5">
-        <v>-6.7000000000000004E-2</v>
+      <c r="D18" s="7">
+        <v>0.191</v>
       </c>
       <c r="E18" s="4">
         <v>2000</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="4"/>
-        <v>-134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <f>E18*D18</f>
+        <v>382</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <f>SUMIF(C:C,H18,E:E)</f>
+        <v>12000</v>
+      </c>
+      <c r="J18">
+        <f>COUNTIF(C:C,H18)</f>
+        <v>6</v>
+      </c>
+      <c r="K18" s="3">
+        <f>SUMIF(C:C,H18,F:F)</f>
+        <v>100</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B19" s="1">
         <v>45965</v>
       </c>
       <c r="C19">
-        <f t="shared" si="3"/>
+        <f>INT((B19-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="5">
-        <v>4.7E-2</v>
+      <c r="D19" s="7">
+        <v>-0.27600000000000002</v>
       </c>
       <c r="E19" s="4">
         <v>2000</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="4"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <f>E19*D19</f>
+        <v>-552</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3">
+        <f>SUMIF(C:C,H19,E:E)</f>
+        <v>24000</v>
+      </c>
+      <c r="J19">
+        <f>COUNTIF(C:C,H19)</f>
+        <v>12</v>
+      </c>
+      <c r="K19" s="3">
+        <f>SUMIF(C:C,H19,F:F)</f>
+        <v>2784</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="1"/>
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B20" s="1">
         <v>45965</v>
       </c>
       <c r="C20">
-        <f t="shared" si="3"/>
+        <f>INT((B20-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="5">
-        <v>7.8E-2</v>
+      <c r="D20" s="7">
+        <v>0.106</v>
       </c>
       <c r="E20" s="4">
         <v>2000</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="4"/>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <f>E20*D20</f>
+        <v>212</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20" s="3">
+        <f>SUMIF(C:C,H20,E:E)</f>
+        <v>18000</v>
+      </c>
+      <c r="J20">
+        <f>COUNTIF(C:C,H20)</f>
+        <v>9</v>
+      </c>
+      <c r="K20" s="3">
+        <f>SUMIF(C:C,H20,F:F)</f>
+        <v>904</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="1"/>
+        <v>5.0222222222222224E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B21" s="1">
         <v>45965</v>
       </c>
       <c r="C21">
-        <f t="shared" si="3"/>
+        <f>INT((B21-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="5">
-        <v>5.0000000000000001E-3</v>
+      <c r="D21" s="7">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E21" s="4">
         <v>2000</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <f>E21*D21</f>
+        <v>90</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21" s="3">
+        <f>SUMIF(C:C,H21,E:E)</f>
+        <v>2000</v>
+      </c>
+      <c r="J21">
+        <f>COUNTIF(C:C,H21)</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <f>SUMIF(C:C,H21,F:F)</f>
+        <v>28</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="1"/>
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1">
         <v>45965</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
+        <f>INT((B22-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="5">
-        <v>4.8000000000000001E-2</v>
+      <c r="D22" s="7">
+        <v>0.35399999999999998</v>
       </c>
       <c r="E22" s="4">
         <v>2000</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="4"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <f>E22*D22</f>
+        <v>708</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22" s="3">
+        <f>SUMIF(C:C,H22,E:E)</f>
+        <v>10000</v>
+      </c>
+      <c r="J22">
+        <f>COUNTIF(C:C,H22)</f>
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
+        <f>SUMIF(C:C,H22,F:F)</f>
+        <v>226</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="1"/>
+        <v>2.2599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B23" s="1">
         <v>45965</v>
       </c>
       <c r="C23">
-        <f t="shared" si="3"/>
+        <f>INT((B23-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="5">
-        <v>-5.8999999999999997E-2</v>
+      <c r="D23" s="7">
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="E23" s="4">
         <v>2000</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="4"/>
-        <v>-118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <f>E23*D23</f>
+        <v>-122</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23" s="3">
+        <f>SUMIF(C:C,H23,E:E)</f>
+        <v>8000</v>
+      </c>
+      <c r="J23">
+        <f>COUNTIF(C:C,H23)</f>
+        <v>4</v>
+      </c>
+      <c r="K23" s="3">
+        <f>SUMIF(C:C,H23,F:F)</f>
+        <v>1082</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="1"/>
+        <v>0.13525000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B24" s="1">
         <v>45965</v>
       </c>
       <c r="C24">
-        <f t="shared" si="3"/>
+        <f>INT((B24-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="5">
-        <v>0.35399999999999998</v>
+      <c r="D24" s="7">
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E24" s="4">
         <v>2000</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="4"/>
-        <v>708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <f>E24*D24</f>
+        <v>96</v>
+      </c>
+      <c r="H24">
+        <v>11</v>
+      </c>
+      <c r="I24" s="3">
+        <f>SUMIF(C:C,H24,E:E)</f>
+        <v>10000</v>
+      </c>
+      <c r="J24">
+        <f>COUNTIF(C:C,H24)</f>
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
+        <f>SUMIF(C:C,H24,F:F)</f>
+        <v>-130</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1">
         <v>45965</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f>INT((B25-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="5">
-        <v>-6.0999999999999999E-2</v>
+      <c r="D25" s="7">
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="E25" s="4">
         <v>2000</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="4"/>
-        <v>-122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <f>E25*D25</f>
+        <v>-118</v>
+      </c>
+      <c r="H25">
+        <v>12</v>
+      </c>
+      <c r="I25" s="3">
+        <f>SUMIF(C:C,H25,E:E)</f>
+        <v>44000</v>
+      </c>
+      <c r="J25">
+        <f>COUNTIF(C:C,H25)</f>
+        <v>22</v>
+      </c>
+      <c r="K25" s="3">
+        <f>SUMIF(C:C,H25,F:F)</f>
+        <v>1054</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="1"/>
+        <v>2.3954545454545454E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1">
         <v>45965</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
+        <f>INT((B26-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="5">
-        <v>0.191</v>
+      <c r="D26" s="7">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E26" s="4">
         <v>2000</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="4"/>
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <f>E26*D26</f>
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>13</v>
+      </c>
+      <c r="I26" s="3">
+        <f>SUMIF(C:C,H26,E:E)</f>
+        <v>82000</v>
+      </c>
+      <c r="J26">
+        <f>COUNTIF(C:C,H26)</f>
+        <v>41</v>
+      </c>
+      <c r="K26" s="3">
+        <f>SUMIF(C:C,H26,F:F)</f>
+        <v>606</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="1"/>
+        <v>7.390243902439024E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1">
         <v>45965</v>
       </c>
       <c r="C27">
-        <f t="shared" si="3"/>
+        <f>INT((B27-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="5">
-        <v>0.185</v>
+      <c r="D27" s="7">
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E27" s="4">
         <v>2000</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="4"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <f>E27*D27</f>
+        <v>196</v>
+      </c>
+      <c r="L27" s="9">
+        <f>AVERAGE(L14:L26)</f>
+        <v>4.4424672351600261E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B28" s="1">
         <v>45965</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
+        <f>INT((B28-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="5">
-        <v>0.106</v>
+      <c r="D28" s="7">
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="E28" s="4">
         <v>2000</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="4"/>
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <f>E28*D28</f>
+        <v>-134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1">
         <v>45965</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
+        <f>INT((B29-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="5">
-        <v>0.17399999999999999</v>
+      <c r="D29" s="7">
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="E29" s="4">
         <v>2000</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="4"/>
-        <v>348</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <f>E29*D29</f>
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1">
         <v>45965</v>
       </c>
       <c r="C30">
-        <f t="shared" si="3"/>
+        <f>INT((B30-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="5">
-        <v>0.113</v>
+      <c r="D30" s="7">
+        <v>7.8E-2</v>
       </c>
       <c r="E30" s="4">
         <v>2000</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="4"/>
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <f>E30*D30</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1">
         <v>45965</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
+        <f>INT((B31-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="5">
-        <v>-5.0000000000000001E-3</v>
+      <c r="D31" s="7">
+        <v>2E-3</v>
       </c>
       <c r="E31" s="4">
         <v>2000</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="4"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <f>E31*D31</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1">
         <v>45965</v>
       </c>
       <c r="C32">
-        <f t="shared" si="3"/>
+        <f>INT((B32-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="5">
-        <v>0.313</v>
+      <c r="D32" s="7">
+        <v>4.7E-2</v>
       </c>
       <c r="E32" s="4">
         <v>2000</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="4"/>
-        <v>626</v>
+        <f>E32*D32</f>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1">
         <v>45965</v>
       </c>
       <c r="C33">
-        <f t="shared" si="3"/>
+        <f>INT((B33-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="5">
-        <v>4.4999999999999998E-2</v>
+      <c r="D33" s="7">
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="E33" s="4">
         <v>2000</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f>E33*D33</f>
+        <v>-58</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1">
         <v>45965</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
+        <f>INT((B34-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="5">
-        <v>0.13900000000000001</v>
+      <c r="D34" s="7">
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="E34" s="4">
         <v>2000</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="4"/>
-        <v>278</v>
+        <f>E34*D34</f>
+        <v>-148</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="B35" s="1">
         <v>45965</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
+        <f>INT((B35-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D35" s="5">
-        <v>-0.27600000000000002</v>
+      <c r="D35" s="7">
+        <v>0.05</v>
       </c>
       <c r="E35" s="4">
         <v>2000</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="4"/>
-        <v>-552</v>
+        <f>E35*D35</f>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="B36" s="1">
         <v>45965</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
+        <f>INT((B36-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="5">
-        <v>2.5999999999999999E-2</v>
+      <c r="D36" s="7">
+        <v>-0.104</v>
       </c>
       <c r="E36" s="4">
         <v>2000</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="4"/>
-        <v>52</v>
+        <f>E36*D36</f>
+        <v>-208</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B37" s="1">
         <v>45966</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
+        <f>INT((B37-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="5">
-        <v>-0.14699999999999999</v>
+      <c r="D37" s="7">
+        <v>0.114</v>
       </c>
       <c r="E37" s="4">
         <v>2000</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="4"/>
-        <v>-294</v>
+        <f>E37*D37</f>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="B38" s="1">
         <v>45966</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
+        <f>INT((B38-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="5">
-        <v>-0.217</v>
+      <c r="D38" s="7">
+        <v>-0.14499999999999999</v>
       </c>
       <c r="E38" s="4">
         <v>2000</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="4"/>
-        <v>-434</v>
+        <f>E38*D38</f>
+        <v>-290</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="B39" s="1">
         <v>45966</v>
       </c>
       <c r="C39">
-        <f t="shared" si="3"/>
+        <f>INT((B39-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="5">
-        <v>0.159</v>
+      <c r="D39" s="7">
+        <v>0.64700000000000002</v>
       </c>
       <c r="E39" s="4">
         <v>2000</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="4"/>
-        <v>318</v>
+        <f>E39*D39</f>
+        <v>1294</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="B40" s="1">
         <v>45966</v>
       </c>
       <c r="C40">
-        <f t="shared" si="3"/>
+        <f>INT((B40-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="5">
-        <v>0.125</v>
+      <c r="D40" s="7">
+        <v>3.9E-2</v>
       </c>
       <c r="E40" s="4">
         <v>2000</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" si="4"/>
-        <v>250</v>
+        <f>E40*D40</f>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="B41" s="1">
         <v>45966</v>
       </c>
       <c r="C41">
-        <f t="shared" si="3"/>
+        <f>INT((B41-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="5">
-        <v>4.5999999999999999E-2</v>
+      <c r="D41" s="7">
+        <v>0.13500000000000001</v>
       </c>
       <c r="E41" s="4">
         <v>2000</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="4"/>
-        <v>92</v>
+        <f>E41*D41</f>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B42" s="1">
         <v>45966</v>
       </c>
       <c r="C42">
-        <f t="shared" si="3"/>
+        <f>INT((B42-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="5">
-        <v>8.5999999999999993E-2</v>
+      <c r="D42" s="7">
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="E42" s="4">
         <v>2000</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" si="4"/>
-        <v>172</v>
+        <f>E42*D42</f>
+        <v>-76</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B43" s="1">
         <v>45966</v>
       </c>
       <c r="C43">
-        <f t="shared" si="3"/>
+        <f>INT((B43-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="5">
-        <v>7.0000000000000001E-3</v>
+      <c r="D43" s="7">
+        <v>0.159</v>
       </c>
       <c r="E43" s="4">
         <v>2000</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f>E43*D43</f>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B44" s="1">
         <v>45966</v>
       </c>
       <c r="C44">
-        <f t="shared" si="3"/>
+        <f>INT((B44-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="5">
-        <v>0.252</v>
+      <c r="D44" s="7">
+        <v>0.14799999999999999</v>
       </c>
       <c r="E44" s="4">
         <v>2000</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="4"/>
-        <v>504</v>
+        <f>E44*D44</f>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B45" s="1">
         <v>45966</v>
       </c>
       <c r="C45">
-        <f t="shared" si="3"/>
+        <f>INT((B45-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="5">
-        <v>0.313</v>
+      <c r="D45" s="7">
+        <v>-0.217</v>
       </c>
       <c r="E45" s="4">
         <v>2000</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="4"/>
-        <v>626</v>
+        <f>E45*D45</f>
+        <v>-434</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B46" s="1">
         <v>45966</v>
       </c>
       <c r="C46">
-        <f t="shared" si="3"/>
+        <f>INT((B46-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="5">
-        <v>0.2</v>
+      <c r="D46" s="7">
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="E46" s="4">
         <v>2000</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="4"/>
-        <v>400</v>
+        <f>E46*D46</f>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="B47" s="1">
         <v>45966</v>
       </c>
       <c r="C47">
-        <f t="shared" si="3"/>
+        <f>INT((B47-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="5">
-        <v>0.47499999999999998</v>
+      <c r="D47" s="7">
+        <v>0.03</v>
       </c>
       <c r="E47" s="4">
         <v>2000</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="4"/>
-        <v>950</v>
+        <f>E47*D47</f>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B48" s="1">
         <v>45966</v>
       </c>
       <c r="C48">
-        <f t="shared" si="3"/>
+        <f>INT((B48-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="5">
-        <v>3.5999999999999997E-2</v>
+      <c r="D48" s="7">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E48" s="4">
         <v>2000</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="4"/>
-        <v>72</v>
+        <f>E48*D48</f>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B49" s="1">
         <v>45966</v>
       </c>
       <c r="C49">
-        <f t="shared" si="3"/>
+        <f>INT((B49-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="5">
-        <v>2.1000000000000001E-2</v>
+      <c r="D49" s="7">
+        <v>0.125</v>
       </c>
       <c r="E49" s="4">
         <v>2000</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="4"/>
-        <v>42</v>
+        <f>E49*D49</f>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B50" s="1">
         <v>45966</v>
       </c>
       <c r="C50">
-        <f t="shared" si="3"/>
+        <f>INT((B50-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="5">
-        <v>6.0000000000000001E-3</v>
+      <c r="D50" s="7">
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E50" s="4">
         <v>2000</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>E50*D50</f>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B51" s="1">
         <v>45966</v>
       </c>
       <c r="C51">
-        <f t="shared" si="3"/>
+        <f>INT((B51-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="5">
-        <v>-3.7999999999999999E-2</v>
+      <c r="D51" s="7">
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E51" s="4">
         <v>2000</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="4"/>
-        <v>-76</v>
+        <f>E51*D51</f>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B52" s="1">
         <v>45966</v>
       </c>
       <c r="C52">
-        <f t="shared" si="3"/>
+        <f>INT((B52-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="5">
-        <v>0.114</v>
+      <c r="D52" s="7">
+        <v>-0.14699999999999999</v>
       </c>
       <c r="E52" s="4">
         <v>2000</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="4"/>
-        <v>228</v>
+        <f>E52*D52</f>
+        <v>-294</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B53" s="1">
         <v>45966</v>
       </c>
       <c r="C53">
-        <f t="shared" si="3"/>
+        <f>INT((B53-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D53" s="5">
-        <v>-2.5000000000000001E-2</v>
+      <c r="D53" s="7">
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="E53" s="4">
         <v>2000</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="4"/>
-        <v>-50</v>
+        <f>E53*D53</f>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="b">
-        <v>1</v>
+      <c r="A54" t="s">
+        <v>130</v>
       </c>
       <c r="B54" s="1">
         <v>45966</v>
       </c>
       <c r="C54">
-        <f t="shared" si="3"/>
+        <f>INT((B54-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D54" s="5">
-        <v>4.1000000000000002E-2</v>
+      <c r="D54" s="7">
+        <v>0.313</v>
       </c>
       <c r="E54" s="4">
         <v>2000</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="4"/>
-        <v>82</v>
+        <f>E54*D54</f>
+        <v>626</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B55" s="1">
         <v>45966</v>
       </c>
       <c r="C55">
-        <f t="shared" si="3"/>
+        <f>INT((B55-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D55" s="5">
-        <v>-0.14499999999999999</v>
+      <c r="D55" s="7">
+        <v>0.2</v>
       </c>
       <c r="E55" s="4">
         <v>2000</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="4"/>
-        <v>-290</v>
+        <f>E55*D55</f>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B56" s="1">
         <v>45966</v>
       </c>
       <c r="C56">
-        <f t="shared" si="3"/>
+        <f>INT((B56-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="5">
-        <v>1.7000000000000001E-2</v>
+      <c r="D56" s="7">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E56" s="4">
         <v>2000</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="4"/>
-        <v>34</v>
+        <f>E56*D56</f>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B57" s="1">
         <v>45966</v>
       </c>
       <c r="C57">
-        <f t="shared" si="3"/>
+        <f>INT((B57-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D57" s="5">
-        <v>0.14799999999999999</v>
+      <c r="D57" s="7">
+        <v>0.47499999999999998</v>
       </c>
       <c r="E57" s="4">
         <v>2000</v>
       </c>
       <c r="F57" s="6">
-        <f t="shared" si="4"/>
-        <v>296</v>
+        <f>E57*D57</f>
+        <v>950</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B58" s="1">
         <v>45966</v>
       </c>
       <c r="C58">
-        <f t="shared" si="3"/>
+        <f>INT((B58-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D58" s="5">
-        <v>0.64700000000000002</v>
+      <c r="D58" s="7">
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E58" s="4">
         <v>2000</v>
       </c>
       <c r="F58" s="6">
-        <f t="shared" si="4"/>
-        <v>1294</v>
+        <f>E58*D58</f>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>159</v>
+      <c r="A59" t="b">
+        <v>1</v>
       </c>
       <c r="B59" s="1">
         <v>45966</v>
       </c>
       <c r="C59">
-        <f t="shared" si="3"/>
+        <f>INT((B59-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D59" s="5">
-        <v>3.9E-2</v>
+      <c r="D59" s="7">
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="E59" s="4">
         <v>2000</v>
       </c>
       <c r="F59" s="6">
-        <f t="shared" si="4"/>
-        <v>78</v>
+        <f>E59*D59</f>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="B60" s="1">
         <v>45966</v>
       </c>
       <c r="C60">
-        <f t="shared" si="3"/>
+        <f>INT((B60-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="5">
-        <v>0.03</v>
+      <c r="D60" s="7">
+        <v>0.252</v>
       </c>
       <c r="E60" s="4">
         <v>2000</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <f>E60*D60</f>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B61" s="1">
         <v>45966</v>
       </c>
       <c r="C61">
-        <f t="shared" si="3"/>
+        <f>INT((B61-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D61" s="5">
-        <v>0.13500000000000001</v>
+      <c r="D61" s="7">
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="E61" s="4">
         <v>2000</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" si="4"/>
-        <v>270</v>
+        <f>E61*D61</f>
+        <v>-50</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="B62" s="1">
         <v>45967</v>
       </c>
       <c r="C62">
-        <f t="shared" si="3"/>
+        <f>INT((B62-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D62" s="5">
-        <v>1.4999999999999999E-2</v>
+      <c r="D62" s="7">
+        <v>0.36099999999999999</v>
       </c>
       <c r="E62" s="4">
         <v>2000</v>
       </c>
       <c r="F62" s="6">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f>E62*D62</f>
+        <v>722</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="B63" s="1">
         <v>45967</v>
       </c>
       <c r="C63">
-        <f t="shared" si="3"/>
+        <f>INT((B63-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D63" s="5">
-        <v>-0.11</v>
+      <c r="D63" s="7">
+        <v>0.41</v>
       </c>
       <c r="E63" s="4">
         <v>2000</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" si="4"/>
-        <v>-220</v>
+        <f>E63*D63</f>
+        <v>820</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="B64" s="1">
         <v>45967</v>
       </c>
       <c r="C64">
-        <f t="shared" si="3"/>
+        <f>INT((B64-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D64" s="5">
-        <v>0.25800000000000001</v>
+      <c r="D64" s="7">
+        <v>-0.27200000000000002</v>
       </c>
       <c r="E64" s="4">
         <v>2000</v>
       </c>
       <c r="F64" s="6">
-        <f t="shared" si="4"/>
-        <v>516</v>
+        <f>E64*D64</f>
+        <v>-544</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="B65" s="1">
         <v>45967</v>
       </c>
       <c r="C65">
-        <f t="shared" si="3"/>
+        <f>INT((B65-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D65" s="5">
-        <v>-2.4E-2</v>
+      <c r="D65" s="7">
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E65" s="4">
         <v>2000</v>
       </c>
       <c r="F65" s="6">
-        <f t="shared" si="4"/>
-        <v>-48</v>
+        <f>E65*D65</f>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="B66" s="1">
         <v>45967</v>
       </c>
       <c r="C66">
-        <f t="shared" si="3"/>
+        <f>INT((B66-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D66" s="5">
-        <v>0.17100000000000001</v>
+      <c r="D66" s="7">
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E66" s="4">
         <v>2000</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" si="4"/>
-        <v>342</v>
+        <f>E66*D66</f>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="B67" s="1">
         <v>45967</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="5">INT((B67-$B$2)/7)</f>
+        <f>INT((B67-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="5">
-        <v>-4.4999999999999998E-2</v>
+      <c r="D67" s="7">
+        <v>0.23400000000000001</v>
       </c>
       <c r="E67" s="4">
         <v>2000</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" ref="F67:F130" si="6">E67*D67</f>
-        <v>-90</v>
+        <f>E67*D67</f>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="B68" s="1">
         <v>45967</v>
       </c>
       <c r="C68">
-        <f t="shared" si="5"/>
+        <f>INT((B68-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D68" s="5">
-        <v>-0.123</v>
+      <c r="D68" s="7">
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="E68" s="4">
         <v>2000</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="6"/>
-        <v>-246</v>
+        <f>E68*D68</f>
+        <v>-88</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="B69" s="1">
         <v>45967</v>
       </c>
       <c r="C69">
-        <f t="shared" si="5"/>
+        <f>INT((B69-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D69" s="5">
-        <v>7.0000000000000001E-3</v>
+      <c r="D69" s="7">
+        <v>0.09</v>
       </c>
       <c r="E69" s="4">
         <v>2000</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" si="6"/>
-        <v>14</v>
+        <f>E69*D69</f>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B70" s="1">
         <v>45967</v>
       </c>
       <c r="C70">
-        <f t="shared" si="5"/>
+        <f>INT((B70-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D70" s="5">
-        <v>-0.04</v>
+      <c r="D70" s="7">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E70" s="4">
         <v>2000</v>
       </c>
       <c r="F70" s="6">
-        <f t="shared" si="6"/>
-        <v>-80</v>
+        <f>E70*D70</f>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="B71" s="1">
         <v>45967</v>
       </c>
       <c r="C71">
-        <f t="shared" si="5"/>
+        <f>INT((B71-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D71" s="5">
-        <v>0.217</v>
+      <c r="D71" s="7">
+        <v>0.45700000000000002</v>
       </c>
       <c r="E71" s="4">
         <v>2000</v>
       </c>
       <c r="F71" s="6">
-        <f t="shared" si="6"/>
-        <v>434</v>
+        <f>E71*D71</f>
+        <v>914</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="B72" s="1">
         <v>45967</v>
       </c>
       <c r="C72">
-        <f t="shared" si="5"/>
+        <f>INT((B72-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D72" s="5">
-        <v>-1.7000000000000001E-2</v>
+      <c r="D72" s="7">
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="E72" s="4">
         <v>2000</v>
       </c>
       <c r="F72" s="6">
-        <f t="shared" si="6"/>
-        <v>-34</v>
+        <f>E72*D72</f>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B73" s="1">
         <v>45967</v>
       </c>
       <c r="C73">
-        <f t="shared" si="5"/>
+        <f>INT((B73-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="5">
-        <v>0.23899999999999999</v>
+      <c r="D73" s="7">
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="E73" s="4">
         <v>2000</v>
       </c>
       <c r="F73" s="6">
-        <f t="shared" si="6"/>
-        <v>478</v>
+        <f>E73*D73</f>
+        <v>-34</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="B74" s="1">
         <v>45967</v>
       </c>
       <c r="C74">
-        <f t="shared" si="5"/>
+        <f>INT((B74-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D74" s="5">
-        <v>0.01</v>
+      <c r="D74" s="7">
+        <v>-0.13100000000000001</v>
       </c>
       <c r="E74" s="4">
         <v>2000</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f>E74*D74</f>
+        <v>-262</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="B75" s="1">
         <v>45967</v>
       </c>
       <c r="C75">
-        <f t="shared" si="5"/>
+        <f>INT((B75-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D75" s="5">
-        <v>-1.4E-2</v>
+      <c r="D75" s="7">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E75" s="4">
         <v>2000</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" si="6"/>
-        <v>-28</v>
+        <f>E75*D75</f>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B76" s="1">
         <v>45967</v>
       </c>
       <c r="C76">
-        <f t="shared" si="5"/>
+        <f>INT((B76-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D76" s="5">
-        <v>0.05</v>
+      <c r="D76" s="7">
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="E76" s="4">
         <v>2000</v>
       </c>
       <c r="F76" s="6">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <f>E76*D76</f>
+        <v>-92</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B77" s="1">
         <v>45967</v>
       </c>
       <c r="C77">
-        <f t="shared" si="5"/>
+        <f>INT((B77-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D77" s="5">
-        <v>-4.5999999999999999E-2</v>
+      <c r="D77" s="7">
+        <v>-0.123</v>
       </c>
       <c r="E77" s="4">
         <v>2000</v>
       </c>
       <c r="F77" s="6">
-        <f t="shared" si="6"/>
-        <v>-92</v>
+        <f>E77*D77</f>
+        <v>-246</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="B78" s="1">
         <v>45967</v>
       </c>
       <c r="C78">
-        <f t="shared" si="5"/>
+        <f>INT((B78-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="5">
-        <v>-0.122</v>
+      <c r="D78" s="7">
+        <v>0.14099999999999999</v>
       </c>
       <c r="E78" s="4">
         <v>2000</v>
       </c>
       <c r="F78" s="6">
-        <f t="shared" si="6"/>
-        <v>-244</v>
+        <f>E78*D78</f>
+        <v>282</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B79" s="1">
         <v>45967</v>
       </c>
       <c r="C79">
-        <f t="shared" si="5"/>
+        <f>INT((B79-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D79" s="5">
-        <v>-0.27200000000000002</v>
+      <c r="D79" s="7">
+        <v>-0.04</v>
       </c>
       <c r="E79" s="4">
         <v>2000</v>
       </c>
       <c r="F79" s="6">
-        <f t="shared" si="6"/>
-        <v>-544</v>
+        <f>E79*D79</f>
+        <v>-80</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="B80" s="1">
         <v>45967</v>
       </c>
       <c r="C80">
-        <f t="shared" si="5"/>
+        <f>INT((B80-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="5">
-        <v>6.8000000000000005E-2</v>
+      <c r="D80" s="7">
+        <v>-0.11</v>
       </c>
       <c r="E80" s="4">
         <v>2000</v>
       </c>
       <c r="F80" s="6">
-        <f t="shared" si="6"/>
-        <v>136</v>
+        <f>E80*D80</f>
+        <v>-220</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="B81" s="1">
         <v>45967</v>
       </c>
       <c r="C81">
-        <f t="shared" si="5"/>
+        <f>INT((B81-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="5">
-        <v>6.9000000000000006E-2</v>
+      <c r="D81" s="7">
+        <v>0.25800000000000001</v>
       </c>
       <c r="E81" s="4">
         <v>2000</v>
       </c>
       <c r="F81" s="6">
-        <f t="shared" si="6"/>
-        <v>138</v>
+        <f>E81*D81</f>
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="B82" s="1">
         <v>45967</v>
       </c>
       <c r="C82">
-        <f t="shared" si="5"/>
+        <f>INT((B82-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D82" s="5">
-        <v>0.36099999999999999</v>
+      <c r="D82" s="7">
+        <v>-2.4E-2</v>
       </c>
       <c r="E82" s="4">
         <v>2000</v>
       </c>
       <c r="F82" s="6">
-        <f t="shared" si="6"/>
-        <v>722</v>
+        <f>E82*D82</f>
+        <v>-48</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="B83" s="1">
         <v>45967</v>
       </c>
       <c r="C83">
-        <f t="shared" si="5"/>
+        <f>INT((B83-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D83" s="5">
-        <v>0.09</v>
+      <c r="D83" s="7">
+        <v>0.17100000000000001</v>
       </c>
       <c r="E83" s="4">
         <v>2000</v>
       </c>
       <c r="F83" s="6">
-        <f t="shared" si="6"/>
-        <v>180</v>
+        <f>E83*D83</f>
+        <v>342</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B84" s="1">
         <v>45967</v>
       </c>
       <c r="C84">
-        <f t="shared" si="5"/>
+        <f>INT((B84-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D84" s="5">
-        <v>-4.3999999999999997E-2</v>
+      <c r="D84" s="7">
+        <v>-0.122</v>
       </c>
       <c r="E84" s="4">
         <v>2000</v>
       </c>
       <c r="F84" s="6">
-        <f t="shared" si="6"/>
-        <v>-88</v>
+        <f>E84*D84</f>
+        <v>-244</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B85" s="1">
         <v>45967</v>
       </c>
       <c r="C85">
-        <f t="shared" si="5"/>
+        <f>INT((B85-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D85" s="5">
-        <v>-0.13100000000000001</v>
+      <c r="D85" s="7">
+        <v>0.05</v>
       </c>
       <c r="E85" s="4">
         <v>2000</v>
       </c>
       <c r="F85" s="6">
-        <f t="shared" si="6"/>
-        <v>-262</v>
+        <f>E85*D85</f>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="B86" s="1">
         <v>45967</v>
       </c>
       <c r="C86">
-        <f t="shared" si="5"/>
+        <f>INT((B86-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D86" s="5">
-        <v>0.45700000000000002</v>
+      <c r="D86" s="7">
+        <v>0.01</v>
       </c>
       <c r="E86" s="4">
         <v>2000</v>
       </c>
       <c r="F86" s="6">
-        <f t="shared" si="6"/>
-        <v>914</v>
+        <f>E86*D86</f>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="B87" s="1">
         <v>45967</v>
       </c>
       <c r="C87">
-        <f t="shared" si="5"/>
+        <f>INT((B87-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D87" s="5">
-        <v>0.23400000000000001</v>
+      <c r="D87" s="7">
+        <v>0.23899999999999999</v>
       </c>
       <c r="E87" s="4">
         <v>2000</v>
       </c>
       <c r="F87" s="6">
-        <f t="shared" si="6"/>
-        <v>468</v>
+        <f>E87*D87</f>
+        <v>478</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="B88" s="1">
         <v>45967</v>
       </c>
       <c r="C88">
-        <f t="shared" si="5"/>
+        <f>INT((B88-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D88" s="5">
-        <v>8.5999999999999993E-2</v>
+      <c r="D88" s="7">
+        <v>0.217</v>
       </c>
       <c r="E88" s="4">
         <v>2000</v>
       </c>
       <c r="F88" s="6">
-        <f t="shared" si="6"/>
-        <v>172</v>
+        <f>E88*D88</f>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="B89" s="1">
         <v>45967</v>
       </c>
       <c r="C89">
-        <f t="shared" si="5"/>
+        <f>INT((B89-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="5">
-        <v>0.14099999999999999</v>
+      <c r="D89" s="7">
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="E89" s="4">
         <v>2000</v>
       </c>
       <c r="F89" s="6">
-        <f t="shared" si="6"/>
-        <v>282</v>
+        <f>E89*D89</f>
+        <v>-30</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="B90" s="1">
         <v>45967</v>
       </c>
       <c r="C90">
-        <f t="shared" si="5"/>
+        <f>INT((B90-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D90" s="5">
-        <v>0.41</v>
+      <c r="D90" s="7">
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="E90" s="4">
         <v>2000</v>
       </c>
       <c r="F90" s="6">
-        <f t="shared" si="6"/>
-        <v>820</v>
+        <f>E90*D90</f>
+        <v>-90</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B91" s="1">
         <v>45968</v>
       </c>
       <c r="C91">
-        <f t="shared" si="5"/>
+        <f>INT((B91-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D91" s="5">
-        <v>-3.0000000000000001E-3</v>
+      <c r="D91" s="7">
+        <v>0.42499999999999999</v>
       </c>
       <c r="E91" s="4">
         <v>2000</v>
       </c>
       <c r="F91" s="6">
-        <f t="shared" si="6"/>
-        <v>-6</v>
+        <f>E91*D91</f>
+        <v>850</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B92" s="1">
         <v>45968</v>
       </c>
       <c r="C92">
-        <f t="shared" si="5"/>
+        <f>INT((B92-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D92" s="5">
-        <v>0.42499999999999999</v>
+      <c r="D92" s="7">
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E92" s="4">
         <v>2000</v>
       </c>
       <c r="F92" s="6">
-        <f t="shared" si="6"/>
-        <v>850</v>
+        <f>E92*D92</f>
+        <v>-8</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B93" s="1">
         <v>45968</v>
       </c>
       <c r="C93">
-        <f t="shared" si="5"/>
+        <f>INT((B93-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D93" s="5">
-        <v>2E-3</v>
+      <c r="D93" s="7">
+        <v>-0.30199999999999999</v>
       </c>
       <c r="E93" s="4">
         <v>2000</v>
       </c>
       <c r="F93" s="6">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>E93*D93</f>
+        <v>-604</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B94" s="1">
         <v>45968</v>
       </c>
       <c r="C94">
-        <f t="shared" si="5"/>
+        <f>INT((B94-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D94" s="5">
-        <v>2.4E-2</v>
+      <c r="D94" s="7">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E94" s="4">
         <v>2000</v>
       </c>
       <c r="F94" s="6">
-        <f t="shared" si="6"/>
-        <v>48</v>
+        <f>E94*D94</f>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B95" s="1">
         <v>45968</v>
       </c>
       <c r="C95">
-        <f t="shared" si="5"/>
+        <f>INT((B95-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="5">
-        <v>-0.30199999999999999</v>
+      <c r="D95" s="7">
+        <v>2E-3</v>
       </c>
       <c r="E95" s="4">
         <v>2000</v>
       </c>
       <c r="F95" s="6">
-        <f t="shared" si="6"/>
-        <v>-604</v>
+        <f>E95*D95</f>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B96" s="1">
         <v>45968</v>
       </c>
       <c r="C96">
-        <f t="shared" si="5"/>
+        <f>INT((B96-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="5">
-        <v>-4.0000000000000001E-3</v>
+      <c r="D96" s="7">
+        <v>2.4E-2</v>
       </c>
       <c r="E96" s="4">
         <v>2000</v>
       </c>
       <c r="F96" s="6">
-        <f t="shared" si="6"/>
-        <v>-8</v>
+        <f>E96*D96</f>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B97" s="1">
         <v>45968</v>
       </c>
       <c r="C97">
-        <f t="shared" si="5"/>
+        <f>INT((B97-$B$2)/7)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="5">
-        <v>6.6000000000000003E-2</v>
+      <c r="D97" s="7">
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E97" s="4">
         <v>2000</v>
       </c>
       <c r="F97" s="6">
-        <f t="shared" si="6"/>
-        <v>132</v>
+        <f>E97*D97</f>
+        <v>-6</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -28861,17 +29072,17 @@
         <v>45971</v>
       </c>
       <c r="C98">
-        <f t="shared" si="5"/>
+        <f>INT((B98-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="7">
         <v>-3.5999999999999997E-2</v>
       </c>
       <c r="E98" s="4">
         <v>2000</v>
       </c>
       <c r="F98" s="6">
-        <f t="shared" si="6"/>
+        <f>E98*D98</f>
         <v>-72</v>
       </c>
     </row>
@@ -28883,17 +29094,17 @@
         <v>45971</v>
       </c>
       <c r="C99">
-        <f t="shared" si="5"/>
+        <f>INT((B99-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="7">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="E99" s="4">
         <v>2000</v>
       </c>
       <c r="F99" s="6">
-        <f t="shared" si="6"/>
+        <f>E99*D99</f>
         <v>74</v>
       </c>
     </row>
@@ -28905,17 +29116,17 @@
         <v>45971</v>
       </c>
       <c r="C100">
-        <f t="shared" si="5"/>
+        <f>INT((B100-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="7">
         <v>0.104</v>
       </c>
       <c r="E100" s="4">
         <v>2000</v>
       </c>
       <c r="F100" s="6">
-        <f t="shared" si="6"/>
+        <f>E100*D100</f>
         <v>208</v>
       </c>
     </row>
@@ -28927,17 +29138,17 @@
         <v>45971</v>
       </c>
       <c r="C101">
-        <f t="shared" si="5"/>
+        <f>INT((B101-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="7">
         <v>-4.8000000000000001E-2</v>
       </c>
       <c r="E101" s="4">
         <v>2000</v>
       </c>
       <c r="F101" s="6">
-        <f t="shared" si="6"/>
+        <f>E101*D101</f>
         <v>-96</v>
       </c>
     </row>
@@ -28949,17 +29160,17 @@
         <v>45971</v>
       </c>
       <c r="C102">
-        <f t="shared" si="5"/>
+        <f>INT((B102-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="7">
         <v>0.14299999999999999</v>
       </c>
       <c r="E102" s="4">
         <v>2000</v>
       </c>
       <c r="F102" s="6">
-        <f t="shared" si="6"/>
+        <f>E102*D102</f>
         <v>286</v>
       </c>
     </row>
@@ -28971,17 +29182,17 @@
         <v>45971</v>
       </c>
       <c r="C103">
-        <f t="shared" si="5"/>
+        <f>INT((B103-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="7">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="E103" s="4">
         <v>2000</v>
       </c>
       <c r="F103" s="6">
-        <f t="shared" si="6"/>
+        <f>E103*D103</f>
         <v>122</v>
       </c>
     </row>
@@ -28993,17 +29204,17 @@
         <v>45971</v>
       </c>
       <c r="C104">
-        <f t="shared" si="5"/>
+        <f>INT((B104-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="7">
         <v>-2E-3</v>
       </c>
       <c r="E104" s="4">
         <v>2000</v>
       </c>
       <c r="F104" s="6">
-        <f t="shared" si="6"/>
+        <f>E104*D104</f>
         <v>-4</v>
       </c>
     </row>
@@ -29015,17 +29226,17 @@
         <v>45971</v>
       </c>
       <c r="C105">
-        <f t="shared" si="5"/>
+        <f>INT((B105-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="7">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="E105" s="4">
         <v>2000</v>
       </c>
       <c r="F105" s="6">
-        <f t="shared" si="6"/>
+        <f>E105*D105</f>
         <v>192</v>
       </c>
     </row>
@@ -29037,436 +29248,433 @@
         <v>45972</v>
       </c>
       <c r="C106">
-        <f t="shared" si="5"/>
+        <f>INT((B106-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="7">
         <v>4.7E-2</v>
       </c>
       <c r="E106" s="4">
         <v>2000</v>
       </c>
       <c r="F106" s="6">
-        <f t="shared" si="6"/>
+        <f>E106*D106</f>
         <v>94</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B107" s="1">
         <v>45973</v>
       </c>
       <c r="C107">
-        <f t="shared" si="5"/>
+        <f>INT((B107-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D107" s="5">
-        <v>-5.8999999999999997E-2</v>
+      <c r="D107" s="7">
+        <v>-0.1</v>
       </c>
       <c r="E107" s="4">
         <v>2000</v>
       </c>
       <c r="F107" s="6">
-        <f t="shared" si="6"/>
-        <v>-118</v>
+        <f>E107*D107</f>
+        <v>-200</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B108" s="1">
         <v>45973</v>
       </c>
       <c r="C108">
-        <f t="shared" si="5"/>
+        <f>INT((B108-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D108" s="5">
-        <v>-7.0000000000000001E-3</v>
+      <c r="D108" s="7">
+        <v>0.151</v>
       </c>
       <c r="E108" s="4">
         <v>2000</v>
       </c>
       <c r="F108" s="6">
-        <f t="shared" si="6"/>
-        <v>-14</v>
+        <f>E108*D108</f>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B109" s="1">
         <v>45973</v>
       </c>
       <c r="C109">
-        <f t="shared" si="5"/>
+        <f>INT((B109-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D109" s="5">
-        <v>0</v>
+      <c r="D109" s="7">
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="E109" s="4">
         <v>2000</v>
       </c>
       <c r="F109" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>E109*D109</f>
+        <v>-86</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B110" s="1">
         <v>45973</v>
       </c>
       <c r="C110">
-        <f t="shared" si="5"/>
+        <f>INT((B110-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D110" s="5">
-        <v>-4.2999999999999997E-2</v>
+      <c r="D110" s="7">
+        <v>0</v>
       </c>
       <c r="E110" s="4">
         <v>2000</v>
       </c>
       <c r="F110" s="6">
-        <f t="shared" si="6"/>
-        <v>-86</v>
+        <f>E110*D110</f>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B111" s="1">
         <v>45973</v>
       </c>
       <c r="C111">
-        <f t="shared" si="5"/>
+        <f>INT((B111-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D111" s="5">
-        <v>-0.1</v>
+      <c r="D111" s="7">
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="E111" s="4">
         <v>2000</v>
       </c>
       <c r="F111" s="6">
-        <f t="shared" si="6"/>
-        <v>-200</v>
+        <f>E111*D111</f>
+        <v>-118</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B112" s="1">
         <v>45973</v>
       </c>
       <c r="C112">
-        <f t="shared" si="5"/>
+        <f>INT((B112-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D112" s="5">
-        <v>0.151</v>
+      <c r="D112" s="7">
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E112" s="4">
         <v>2000</v>
       </c>
       <c r="F112" s="6">
-        <f t="shared" si="6"/>
-        <v>302</v>
+        <f>E112*D112</f>
+        <v>-14</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B113" s="1">
         <v>45974</v>
       </c>
       <c r="C113">
-        <f t="shared" si="5"/>
+        <f>INT((B113-$B$2)/7)</f>
         <v>1</v>
-      </c>
-      <c r="D113" s="5">
-        <v>-6.8000000000000005E-2</v>
       </c>
       <c r="E113" s="4">
         <v>2000</v>
       </c>
       <c r="F113" s="6">
-        <f t="shared" si="6"/>
-        <v>-136</v>
+        <f>E113*D113</f>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B114" s="1">
         <v>45974</v>
       </c>
       <c r="C114">
-        <f t="shared" si="5"/>
+        <f>INT((B114-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D114" s="5">
-        <v>-0.22500000000000001</v>
+      <c r="D114" s="7">
+        <v>0.02</v>
       </c>
       <c r="E114" s="4">
         <v>2000</v>
       </c>
       <c r="F114" s="6">
-        <f t="shared" si="6"/>
-        <v>-450</v>
+        <f>E114*D114</f>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="B115" s="1">
         <v>45974</v>
       </c>
       <c r="C115">
-        <f t="shared" si="5"/>
+        <f>INT((B115-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D115" s="5">
-        <v>3.5999999999999997E-2</v>
+      <c r="D115" s="7">
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E115" s="4">
         <v>2000</v>
       </c>
       <c r="F115" s="6">
-        <f t="shared" si="6"/>
-        <v>72</v>
+        <f>E115*D115</f>
+        <v>96</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B116" s="1">
         <v>45974</v>
       </c>
       <c r="C116">
-        <f t="shared" si="5"/>
+        <f>INT((B116-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D116" s="5">
-        <v>1.0999999999999999E-2</v>
+      <c r="D116" s="7">
+        <v>0.01</v>
       </c>
       <c r="E116" s="4">
         <v>2000</v>
       </c>
       <c r="F116" s="6">
-        <f t="shared" si="6"/>
-        <v>22</v>
+        <f>E116*D116</f>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B117" s="1">
         <v>45974</v>
       </c>
       <c r="C117">
-        <f t="shared" si="5"/>
+        <f>INT((B117-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D117" s="5">
-        <v>1E-3</v>
+      <c r="D117" s="7">
+        <v>-0.22500000000000001</v>
       </c>
       <c r="E117" s="4">
         <v>2000</v>
       </c>
       <c r="F117" s="6">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f>E117*D117</f>
+        <v>-450</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B118" s="1">
         <v>45974</v>
       </c>
       <c r="C118">
-        <f t="shared" si="5"/>
+        <f>INT((B118-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D118" s="5">
-        <v>0.02</v>
+      <c r="D118" s="7">
+        <v>-7.8E-2</v>
       </c>
       <c r="E118" s="4">
         <v>2000</v>
       </c>
       <c r="F118" s="6">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <f>E118*D118</f>
+        <v>-156</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B119" s="1">
         <v>45974</v>
       </c>
       <c r="C119">
-        <f t="shared" si="5"/>
+        <f>INT((B119-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D119" s="5">
-        <v>0.01</v>
+      <c r="D119" s="7">
+        <v>-6.8000000000000005E-2</v>
       </c>
       <c r="E119" s="4">
         <v>2000</v>
       </c>
       <c r="F119" s="6">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f>E119*D119</f>
+        <v>-136</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B120" s="1">
         <v>45974</v>
       </c>
       <c r="C120">
-        <f t="shared" si="5"/>
+        <f>INT((B120-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D120" s="5">
-        <v>-7.8E-2</v>
+      <c r="D120" s="7">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E120" s="4">
         <v>2000</v>
       </c>
       <c r="F120" s="6">
-        <f t="shared" si="6"/>
-        <v>-156</v>
+        <f>E120*D120</f>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B121" s="1">
         <v>45974</v>
       </c>
       <c r="C121">
-        <f t="shared" si="5"/>
+        <f>INT((B121-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D121" s="5">
-        <v>4.8000000000000001E-2</v>
+      <c r="D121" s="7">
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E121" s="4">
         <v>2000</v>
       </c>
       <c r="F121" s="6">
-        <f t="shared" si="6"/>
-        <v>96</v>
+        <f>E121*D121</f>
+        <v>72</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B122" s="1">
         <v>45975</v>
       </c>
       <c r="C122">
-        <f t="shared" si="5"/>
+        <f>INT((B122-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D122" s="5">
-        <v>6.0000000000000001E-3</v>
+      <c r="D122" s="7">
+        <v>-0.122</v>
       </c>
       <c r="E122" s="4">
         <v>2000</v>
       </c>
       <c r="F122" s="6">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f>E122*D122</f>
+        <v>-244</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B123" s="1">
         <v>45975</v>
       </c>
       <c r="C123">
-        <f t="shared" si="5"/>
+        <f>INT((B123-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D123" s="5">
-        <v>-0.122</v>
+      <c r="D123" s="7">
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="E123" s="4">
         <v>2000</v>
       </c>
       <c r="F123" s="6">
-        <f t="shared" si="6"/>
-        <v>-244</v>
+        <f>E123*D123</f>
+        <v>-76</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B124" s="1">
         <v>45975</v>
       </c>
       <c r="C124">
-        <f t="shared" si="5"/>
+        <f>INT((B124-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D124" s="5">
-        <v>-3.7999999999999999E-2</v>
+      <c r="D124" s="7">
+        <v>-2.7E-2</v>
       </c>
       <c r="E124" s="4">
         <v>2000</v>
       </c>
       <c r="F124" s="6">
-        <f t="shared" si="6"/>
-        <v>-76</v>
+        <f>E124*D124</f>
+        <v>-54</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B125" s="1">
         <v>45975</v>
       </c>
       <c r="C125">
-        <f t="shared" si="5"/>
+        <f>INT((B125-$B$2)/7)</f>
         <v>1</v>
       </c>
-      <c r="D125" s="5">
-        <v>-2.7E-2</v>
+      <c r="D125" s="7">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E125" s="4">
         <v>2000</v>
       </c>
       <c r="F125" s="6">
-        <f t="shared" si="6"/>
-        <v>-54</v>
+        <f>E125*D125</f>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -29477,17 +29685,17 @@
         <v>45978</v>
       </c>
       <c r="C126">
-        <f t="shared" si="5"/>
+        <f>INT((B126-$B$2)/7)</f>
         <v>2</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="7">
         <v>-4.5999999999999999E-2</v>
       </c>
       <c r="E126" s="4">
         <v>2000</v>
       </c>
       <c r="F126" s="6">
-        <f t="shared" si="6"/>
+        <f>E126*D126</f>
         <v>-92</v>
       </c>
     </row>
@@ -29499,238 +29707,238 @@
         <v>45978</v>
       </c>
       <c r="C127">
-        <f t="shared" si="5"/>
+        <f>INT((B127-$B$2)/7)</f>
         <v>2</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="7">
         <v>2.7E-2</v>
       </c>
       <c r="E127" s="4">
         <v>2000</v>
       </c>
       <c r="F127" s="6">
-        <f t="shared" si="6"/>
+        <f>E127*D127</f>
         <v>54</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B128" s="1">
         <v>45978</v>
       </c>
       <c r="C128">
-        <f t="shared" si="5"/>
+        <f>INT((B128-$B$2)/7)</f>
         <v>2</v>
       </c>
-      <c r="D128" s="5">
-        <v>1.6E-2</v>
+      <c r="D128" s="7">
+        <v>-1.9E-2</v>
       </c>
       <c r="E128" s="4">
         <v>2000</v>
       </c>
       <c r="F128" s="6">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f>E128*D128</f>
+        <v>-38</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B129" s="1">
         <v>45978</v>
       </c>
       <c r="C129">
-        <f t="shared" si="5"/>
+        <f>INT((B129-$B$2)/7)</f>
         <v>2</v>
       </c>
-      <c r="D129" s="5">
-        <v>-1.9E-2</v>
+      <c r="D129" s="7">
+        <v>1.6E-2</v>
       </c>
       <c r="E129" s="4">
         <v>2000</v>
       </c>
       <c r="F129" s="6">
-        <f t="shared" si="6"/>
-        <v>-38</v>
+        <f>E129*D129</f>
+        <v>32</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B130" s="1">
         <v>45979</v>
       </c>
       <c r="C130">
-        <f t="shared" si="5"/>
+        <f>INT((B130-$B$2)/7)</f>
         <v>2</v>
       </c>
-      <c r="D130" s="5">
-        <v>-2E-3</v>
+      <c r="D130" s="7">
+        <v>-5.5E-2</v>
       </c>
       <c r="E130" s="4">
         <v>2000</v>
       </c>
       <c r="F130" s="6">
-        <f t="shared" si="6"/>
-        <v>-4</v>
+        <f>E130*D130</f>
+        <v>-110</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B131" s="1">
         <v>45979</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C194" si="7">INT((B131-$B$2)/7)</f>
+        <f>INT((B131-$B$2)/7)</f>
         <v>2</v>
       </c>
-      <c r="D131" s="5">
-        <v>-7.0000000000000001E-3</v>
+      <c r="D131" s="7">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E131" s="4">
         <v>2000</v>
       </c>
       <c r="F131" s="6">
-        <f t="shared" ref="F131:F193" si="8">E131*D131</f>
-        <v>-14</v>
+        <f>E131*D131</f>
+        <v>58</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B132" s="1">
         <v>45979</v>
       </c>
       <c r="C132">
-        <f t="shared" si="7"/>
+        <f>INT((B132-$B$2)/7)</f>
         <v>2</v>
       </c>
-      <c r="D132" s="5">
-        <v>-5.5E-2</v>
+      <c r="D132" s="7">
+        <v>-2E-3</v>
       </c>
       <c r="E132" s="4">
         <v>2000</v>
       </c>
       <c r="F132" s="6">
-        <f t="shared" si="8"/>
-        <v>-110</v>
+        <f>E132*D132</f>
+        <v>-4</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B133" s="1">
         <v>45979</v>
       </c>
       <c r="C133">
-        <f t="shared" si="7"/>
+        <f>INT((B133-$B$2)/7)</f>
         <v>2</v>
       </c>
-      <c r="D133" s="5">
-        <v>2.9000000000000001E-2</v>
+      <c r="D133" s="7">
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E133" s="4">
         <v>2000</v>
       </c>
       <c r="F133" s="6">
-        <f t="shared" si="8"/>
-        <v>58</v>
+        <f>E133*D133</f>
+        <v>-14</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B134" s="1">
         <v>45980</v>
       </c>
       <c r="C134">
-        <f t="shared" si="7"/>
+        <f>INT((B134-$B$2)/7)</f>
         <v>2</v>
       </c>
-      <c r="D134" s="5">
-        <v>0.91100000000000003</v>
+      <c r="D134" s="7">
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="E134" s="4">
         <v>2000</v>
       </c>
       <c r="F134" s="6">
-        <f t="shared" si="8"/>
-        <v>1822</v>
+        <f>E134*D134</f>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B135" s="1">
         <v>45980</v>
       </c>
       <c r="C135">
-        <f t="shared" si="7"/>
+        <f>INT((B135-$B$2)/7)</f>
         <v>2</v>
       </c>
-      <c r="D135" s="5">
-        <v>2.4E-2</v>
+      <c r="D135" s="7">
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E135" s="4">
         <v>2000</v>
       </c>
       <c r="F135" s="6">
-        <f t="shared" si="8"/>
-        <v>48</v>
+        <f>E135*D135</f>
+        <v>114</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B136" s="1">
         <v>45980</v>
       </c>
       <c r="C136">
-        <f t="shared" si="7"/>
+        <f>INT((B136-$B$2)/7)</f>
         <v>2</v>
       </c>
-      <c r="D136" s="5">
-        <v>5.7000000000000002E-2</v>
+      <c r="D136" s="7">
+        <v>2.4E-2</v>
       </c>
       <c r="E136" s="4">
         <v>2000</v>
       </c>
       <c r="F136" s="6">
-        <f t="shared" si="8"/>
-        <v>114</v>
+        <f>E136*D136</f>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B137" s="1">
         <v>45980</v>
       </c>
       <c r="C137">
-        <f t="shared" si="7"/>
+        <f>INT((B137-$B$2)/7)</f>
         <v>2</v>
       </c>
-      <c r="D137" s="5">
-        <v>7.9000000000000001E-2</v>
+      <c r="D137" s="7">
+        <v>0.91100000000000003</v>
       </c>
       <c r="E137" s="4">
         <v>2000</v>
       </c>
       <c r="F137" s="6">
-        <f t="shared" si="8"/>
-        <v>158</v>
+        <f>E137*D137</f>
+        <v>1822</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -29741,17 +29949,17 @@
         <v>45981</v>
       </c>
       <c r="C138">
-        <f t="shared" si="7"/>
+        <f>INT((B138-$B$2)/7)</f>
         <v>2</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="7">
         <v>-0.14099999999999999</v>
       </c>
       <c r="E138" s="4">
         <v>2000</v>
       </c>
       <c r="F138" s="6">
-        <f t="shared" si="8"/>
+        <f>E138*D138</f>
         <v>-282</v>
       </c>
     </row>
@@ -29763,17 +29971,17 @@
         <v>45981</v>
       </c>
       <c r="C139">
-        <f t="shared" si="7"/>
+        <f>INT((B139-$B$2)/7)</f>
         <v>2</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D139" s="7">
         <v>0.17399999999999999</v>
       </c>
       <c r="E139" s="4">
         <v>2000</v>
       </c>
       <c r="F139" s="6">
-        <f t="shared" si="8"/>
+        <f>E139*D139</f>
         <v>348</v>
       </c>
     </row>
@@ -29785,17 +29993,17 @@
         <v>45981</v>
       </c>
       <c r="C140">
-        <f t="shared" si="7"/>
+        <f>INT((B140-$B$2)/7)</f>
         <v>2</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140" s="7">
         <v>0.219</v>
       </c>
       <c r="E140" s="4">
         <v>2000</v>
       </c>
       <c r="F140" s="6">
-        <f t="shared" si="8"/>
+        <f>E140*D140</f>
         <v>438</v>
       </c>
     </row>
@@ -29807,17 +30015,17 @@
         <v>45981</v>
       </c>
       <c r="C141">
-        <f t="shared" si="7"/>
+        <f>INT((B141-$B$2)/7)</f>
         <v>2</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141" s="7">
         <v>0.126</v>
       </c>
       <c r="E141" s="4">
         <v>2000</v>
       </c>
       <c r="F141" s="6">
-        <f t="shared" si="8"/>
+        <f>E141*D141</f>
         <v>252</v>
       </c>
     </row>
@@ -29829,17 +30037,17 @@
         <v>45982</v>
       </c>
       <c r="C142">
-        <f t="shared" si="7"/>
+        <f>INT((B142-$B$2)/7)</f>
         <v>2</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142" s="7">
         <v>-4.2000000000000003E-2</v>
       </c>
       <c r="E142" s="4">
         <v>2000</v>
       </c>
       <c r="F142" s="6">
-        <f t="shared" si="8"/>
+        <f>E142*D142</f>
         <v>-84</v>
       </c>
     </row>
@@ -29851,17 +30059,17 @@
         <v>45985</v>
       </c>
       <c r="C143">
-        <f t="shared" si="7"/>
+        <f>INT((B143-$B$2)/7)</f>
         <v>3</v>
       </c>
-      <c r="D143" s="5">
+      <c r="D143" s="7">
         <v>0.13200000000000001</v>
       </c>
       <c r="E143" s="4">
         <v>2000</v>
       </c>
       <c r="F143" s="6">
-        <f t="shared" si="8"/>
+        <f>E143*D143</f>
         <v>264</v>
       </c>
     </row>
@@ -29873,17 +30081,17 @@
         <v>45985</v>
       </c>
       <c r="C144">
-        <f t="shared" si="7"/>
+        <f>INT((B144-$B$2)/7)</f>
         <v>3</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D144" s="7">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="E144" s="4">
         <v>2000</v>
       </c>
       <c r="F144" s="6">
-        <f t="shared" si="8"/>
+        <f>E144*D144</f>
         <v>152</v>
       </c>
     </row>
@@ -29895,106 +30103,106 @@
         <v>45985</v>
       </c>
       <c r="C145">
-        <f t="shared" si="7"/>
+        <f>INT((B145-$B$2)/7)</f>
         <v>3</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D145" s="7">
         <v>-0.24</v>
       </c>
       <c r="E145" s="4">
         <v>2000</v>
       </c>
       <c r="F145" s="6">
-        <f t="shared" si="8"/>
+        <f>E145*D145</f>
         <v>-480</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B146" s="1">
         <v>45986</v>
       </c>
       <c r="C146">
-        <f t="shared" si="7"/>
+        <f>INT((B146-$B$2)/7)</f>
         <v>3</v>
       </c>
-      <c r="D146" s="5">
-        <v>0.46</v>
+      <c r="D146" s="7">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E146" s="4">
         <v>2000</v>
       </c>
       <c r="F146" s="6">
-        <f t="shared" si="8"/>
-        <v>920</v>
+        <f>E146*D146</f>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B147" s="1">
         <v>45986</v>
       </c>
       <c r="C147">
-        <f t="shared" si="7"/>
+        <f>INT((B147-$B$2)/7)</f>
         <v>3</v>
       </c>
-      <c r="D147" s="5">
-        <v>7.0000000000000001E-3</v>
+      <c r="D147" s="7">
+        <v>0.46</v>
       </c>
       <c r="E147" s="4">
         <v>2000</v>
       </c>
       <c r="F147" s="6">
-        <f t="shared" si="8"/>
-        <v>14</v>
+        <f>E147*D147</f>
+        <v>920</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B148" s="1">
         <v>45986</v>
       </c>
       <c r="C148">
-        <f t="shared" si="7"/>
+        <f>INT((B148-$B$2)/7)</f>
         <v>3</v>
       </c>
-      <c r="D148" s="5">
-        <v>0.09</v>
+      <c r="D148" s="7">
+        <v>0.01</v>
       </c>
       <c r="E148" s="4">
         <v>2000</v>
       </c>
       <c r="F148" s="6">
-        <f t="shared" si="8"/>
-        <v>180</v>
+        <f>E148*D148</f>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B149" s="1">
         <v>45986</v>
       </c>
       <c r="C149">
-        <f t="shared" si="7"/>
+        <f>INT((B149-$B$2)/7)</f>
         <v>3</v>
       </c>
-      <c r="D149" s="5">
-        <v>0.01</v>
+      <c r="D149" s="7">
+        <v>0.09</v>
       </c>
       <c r="E149" s="4">
         <v>2000</v>
       </c>
       <c r="F149" s="6">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f>E149*D149</f>
+        <v>180</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -30005,17 +30213,17 @@
         <v>45987</v>
       </c>
       <c r="C150">
-        <f t="shared" si="7"/>
+        <f>INT((B150-$B$2)/7)</f>
         <v>3</v>
       </c>
-      <c r="D150" s="5">
+      <c r="D150" s="7">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="E150" s="4">
         <v>2000</v>
       </c>
       <c r="F150" s="6">
-        <f t="shared" si="8"/>
+        <f>E150*D150</f>
         <v>154</v>
       </c>
     </row>
@@ -30027,17 +30235,17 @@
         <v>45993</v>
       </c>
       <c r="C151">
-        <f t="shared" si="7"/>
+        <f>INT((B151-$B$2)/7)</f>
         <v>4</v>
       </c>
-      <c r="D151" s="5">
+      <c r="D151" s="7">
         <v>0.14799999999999999</v>
       </c>
       <c r="E151" s="4">
         <v>2000</v>
       </c>
       <c r="F151" s="6">
-        <f t="shared" si="8"/>
+        <f>E151*D151</f>
         <v>296</v>
       </c>
     </row>
@@ -30049,17 +30257,17 @@
         <v>45994</v>
       </c>
       <c r="C152">
-        <f t="shared" si="7"/>
+        <f>INT((B152-$B$2)/7)</f>
         <v>4</v>
       </c>
-      <c r="D152" s="5">
+      <c r="D152" s="7">
         <v>-7.8E-2</v>
       </c>
       <c r="E152" s="4">
         <v>2000</v>
       </c>
       <c r="F152" s="6">
-        <f t="shared" si="8"/>
+        <f>E152*D152</f>
         <v>-156</v>
       </c>
     </row>
@@ -30071,106 +30279,103 @@
         <v>45994</v>
       </c>
       <c r="C153">
-        <f t="shared" si="7"/>
+        <f>INT((B153-$B$2)/7)</f>
         <v>4</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D153" s="7">
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="E153" s="4">
         <v>2000</v>
       </c>
       <c r="F153" s="6">
-        <f t="shared" si="8"/>
+        <f>E153*D153</f>
         <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B154" s="1">
         <v>45995</v>
       </c>
       <c r="C154">
-        <f t="shared" si="7"/>
+        <f>INT((B154-$B$2)/7)</f>
         <v>4</v>
       </c>
-      <c r="D154" s="5">
-        <v>0.20699999999999999</v>
+      <c r="D154" s="7">
+        <v>-0.313</v>
       </c>
       <c r="E154" s="4">
         <v>2000</v>
       </c>
       <c r="F154" s="6">
-        <f t="shared" si="8"/>
-        <v>414</v>
+        <f>E154*D154</f>
+        <v>-626</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B155" s="1">
         <v>45995</v>
       </c>
       <c r="C155">
-        <f t="shared" si="7"/>
+        <f>INT((B155-$B$2)/7)</f>
         <v>4</v>
-      </c>
-      <c r="D155" s="5">
-        <v>-0.313</v>
       </c>
       <c r="E155" s="4">
         <v>2000</v>
       </c>
       <c r="F155" s="6">
-        <f t="shared" si="8"/>
-        <v>-626</v>
+        <f>E155*D155</f>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B156" s="1">
-        <v>45999</v>
+        <v>45995</v>
       </c>
       <c r="C156">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="D156" s="5">
-        <v>-5.7000000000000002E-2</v>
+        <f>INT((B156-$B$2)/7)</f>
+        <v>4</v>
+      </c>
+      <c r="D156" s="7">
+        <v>0.20699999999999999</v>
       </c>
       <c r="E156" s="4">
         <v>2000</v>
       </c>
       <c r="F156" s="6">
-        <f t="shared" si="8"/>
-        <v>-114</v>
+        <f>E156*D156</f>
+        <v>414</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B157" s="1">
         <v>45999</v>
       </c>
       <c r="C157">
-        <f t="shared" si="7"/>
+        <f>INT((B157-$B$2)/7)</f>
         <v>5</v>
       </c>
-      <c r="D157" s="5">
-        <v>-0.10199999999999999</v>
+      <c r="D157" s="7">
+        <v>0.215</v>
       </c>
       <c r="E157" s="4">
         <v>2000</v>
       </c>
       <c r="F157" s="6">
-        <f t="shared" si="8"/>
-        <v>-204</v>
+        <f>E157*D157</f>
+        <v>430</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -30181,172 +30386,172 @@
         <v>45999</v>
       </c>
       <c r="C158">
-        <f t="shared" si="7"/>
+        <f>INT((B158-$B$2)/7)</f>
         <v>5</v>
       </c>
-      <c r="D158" s="5">
+      <c r="D158" s="7">
         <v>3.1E-2</v>
       </c>
       <c r="E158" s="4">
         <v>2000</v>
       </c>
       <c r="F158" s="6">
-        <f t="shared" si="8"/>
+        <f>E158*D158</f>
         <v>62</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B159" s="1">
         <v>45999</v>
       </c>
       <c r="C159">
-        <f t="shared" si="7"/>
+        <f>INT((B159-$B$2)/7)</f>
         <v>5</v>
       </c>
-      <c r="D159" s="5">
-        <v>0.215</v>
+      <c r="D159" s="7">
+        <v>-5.7000000000000002E-2</v>
       </c>
       <c r="E159" s="4">
         <v>2000</v>
       </c>
       <c r="F159" s="6">
-        <f t="shared" si="8"/>
-        <v>430</v>
+        <f>E159*D159</f>
+        <v>-114</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B160" s="1">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="C160">
-        <f t="shared" si="7"/>
+        <f>INT((B160-$B$2)/7)</f>
         <v>5</v>
       </c>
-      <c r="D160" s="5">
-        <v>0.107</v>
+      <c r="D160" s="7">
+        <v>-0.10199999999999999</v>
       </c>
       <c r="E160" s="4">
         <v>2000</v>
       </c>
       <c r="F160" s="6">
-        <f t="shared" si="8"/>
-        <v>214</v>
+        <f>E160*D160</f>
+        <v>-204</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B161" s="1">
         <v>46000</v>
       </c>
       <c r="C161">
-        <f t="shared" si="7"/>
+        <f>INT((B161-$B$2)/7)</f>
         <v>5</v>
       </c>
-      <c r="D161" s="5">
-        <v>-1.9E-2</v>
+      <c r="D161" s="7">
+        <v>0.107</v>
       </c>
       <c r="E161" s="4">
         <v>2000</v>
       </c>
       <c r="F161" s="6">
-        <f t="shared" si="8"/>
-        <v>-38</v>
+        <f>E161*D161</f>
+        <v>214</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B162" s="1">
-        <v>46001</v>
+        <v>46000</v>
       </c>
       <c r="C162">
-        <f t="shared" si="7"/>
+        <f>INT((B162-$B$2)/7)</f>
         <v>5</v>
       </c>
-      <c r="D162" s="5">
-        <v>0.14399999999999999</v>
+      <c r="D162" s="7">
+        <v>-1.9E-2</v>
       </c>
       <c r="E162" s="4">
         <v>2000</v>
       </c>
       <c r="F162" s="6">
-        <f t="shared" si="8"/>
-        <v>288</v>
+        <f>E162*D162</f>
+        <v>-38</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B163" s="1">
         <v>46001</v>
       </c>
       <c r="C163">
-        <f t="shared" si="7"/>
+        <f>INT((B163-$B$2)/7)</f>
         <v>5</v>
       </c>
-      <c r="D163" s="5">
-        <v>0.28299999999999997</v>
+      <c r="D163" s="7">
+        <v>0.30499999999999999</v>
       </c>
       <c r="E163" s="4">
         <v>2000</v>
       </c>
       <c r="F163" s="6">
-        <f t="shared" si="8"/>
-        <v>566</v>
+        <f>E163*D163</f>
+        <v>610</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B164" s="1">
         <v>46001</v>
       </c>
       <c r="C164">
-        <f t="shared" si="7"/>
+        <f>INT((B164-$B$2)/7)</f>
         <v>5</v>
       </c>
-      <c r="D164" s="5">
-        <v>0.30499999999999999</v>
+      <c r="D164" s="7">
+        <v>0.14399999999999999</v>
       </c>
       <c r="E164" s="4">
         <v>2000</v>
       </c>
       <c r="F164" s="6">
-        <f t="shared" si="8"/>
-        <v>610</v>
+        <f>E164*D164</f>
+        <v>288</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B165" s="1">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="C165">
-        <f t="shared" si="7"/>
+        <f>INT((B165-$B$2)/7)</f>
         <v>5</v>
       </c>
-      <c r="D165" s="5">
-        <v>-4.9000000000000002E-2</v>
+      <c r="D165" s="7">
+        <v>0.28299999999999997</v>
       </c>
       <c r="E165" s="4">
         <v>2000</v>
       </c>
       <c r="F165" s="6">
-        <f t="shared" si="8"/>
-        <v>-98</v>
+        <f>E165*D165</f>
+        <v>566</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -30357,128 +30562,128 @@
         <v>46002</v>
       </c>
       <c r="C166">
-        <f t="shared" si="7"/>
+        <f>INT((B166-$B$2)/7)</f>
         <v>5</v>
       </c>
-      <c r="D166" s="5">
+      <c r="D166" s="7">
         <v>-0.02</v>
       </c>
       <c r="E166" s="4">
         <v>2000</v>
       </c>
       <c r="F166" s="6">
-        <f t="shared" si="8"/>
+        <f>E166*D166</f>
         <v>-40</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B167" s="1">
-        <v>46003</v>
+        <v>46002</v>
       </c>
       <c r="C167">
-        <f t="shared" si="7"/>
+        <f>INT((B167-$B$2)/7)</f>
         <v>5</v>
       </c>
-      <c r="D167" s="5">
-        <v>0.55400000000000005</v>
+      <c r="D167" s="7">
+        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="E167" s="4">
         <v>2000</v>
       </c>
       <c r="F167" s="6">
-        <f t="shared" si="8"/>
-        <v>1108</v>
+        <f>E167*D167</f>
+        <v>-98</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B168" s="1">
-        <v>46006</v>
+        <v>46003</v>
       </c>
       <c r="C168">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="D168" s="5">
-        <v>0.35199999999999998</v>
+        <f>INT((B168-$B$2)/7)</f>
+        <v>5</v>
+      </c>
+      <c r="D168" s="7">
+        <v>0.55400000000000005</v>
       </c>
       <c r="E168" s="4">
         <v>2000</v>
       </c>
       <c r="F168" s="6">
-        <f t="shared" si="8"/>
-        <v>704</v>
+        <f>E168*D168</f>
+        <v>1108</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B169" s="1">
-        <v>46007</v>
+        <v>46006</v>
       </c>
       <c r="C169">
-        <f t="shared" si="7"/>
+        <f>INT((B169-$B$2)/7)</f>
         <v>6</v>
       </c>
-      <c r="D169" s="5">
-        <v>-3.3000000000000002E-2</v>
+      <c r="D169" s="7">
+        <v>0.35199999999999998</v>
       </c>
       <c r="E169" s="4">
         <v>2000</v>
       </c>
       <c r="F169" s="6">
-        <f t="shared" si="8"/>
-        <v>-66</v>
+        <f>E169*D169</f>
+        <v>704</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B170" s="1">
         <v>46007</v>
       </c>
       <c r="C170">
-        <f t="shared" si="7"/>
+        <f>INT((B170-$B$2)/7)</f>
         <v>6</v>
       </c>
-      <c r="D170" s="5">
-        <v>-0.13</v>
+      <c r="D170" s="7">
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="E170" s="4">
         <v>2000</v>
       </c>
       <c r="F170" s="6">
-        <f t="shared" si="8"/>
-        <v>-260</v>
+        <f>E170*D170</f>
+        <v>-66</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B171" s="1">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="C171">
-        <f t="shared" si="7"/>
+        <f>INT((B171-$B$2)/7)</f>
         <v>6</v>
       </c>
-      <c r="D171" s="5">
-        <v>-7.8E-2</v>
+      <c r="D171" s="7">
+        <v>-0.13</v>
       </c>
       <c r="E171" s="4">
         <v>2000</v>
       </c>
       <c r="F171" s="6">
-        <f t="shared" si="8"/>
-        <v>-156</v>
+        <f>E171*D171</f>
+        <v>-260</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -30489,62 +30694,62 @@
         <v>46008</v>
       </c>
       <c r="C172">
-        <f t="shared" si="7"/>
+        <f>INT((B172-$B$2)/7)</f>
         <v>6</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D172" s="7">
         <v>0.10299999999999999</v>
       </c>
       <c r="E172" s="4">
         <v>2000</v>
       </c>
       <c r="F172" s="6">
-        <f t="shared" si="8"/>
+        <f>E172*D172</f>
         <v>206</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B173" s="1">
         <v>46008</v>
       </c>
       <c r="C173">
-        <f t="shared" si="7"/>
+        <f>INT((B173-$B$2)/7)</f>
         <v>6</v>
       </c>
-      <c r="D173" s="5">
-        <v>3.3000000000000002E-2</v>
+      <c r="D173" s="7">
+        <v>-7.8E-2</v>
       </c>
       <c r="E173" s="4">
         <v>2000</v>
       </c>
       <c r="F173" s="6">
-        <f t="shared" si="8"/>
-        <v>66</v>
+        <f>E173*D173</f>
+        <v>-156</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B174" s="1">
-        <v>46009</v>
+        <v>46008</v>
       </c>
       <c r="C174">
-        <f t="shared" si="7"/>
+        <f>INT((B174-$B$2)/7)</f>
         <v>6</v>
       </c>
-      <c r="D174" s="5">
-        <v>-0.47299999999999998</v>
+      <c r="D174" s="7">
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E174" s="4">
         <v>2000</v>
       </c>
       <c r="F174" s="6">
-        <f t="shared" si="8"/>
-        <v>-946</v>
+        <f>E174*D174</f>
+        <v>66</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -30555,17 +30760,17 @@
         <v>46009</v>
       </c>
       <c r="C175">
-        <f t="shared" si="7"/>
+        <f>INT((B175-$B$2)/7)</f>
         <v>6</v>
       </c>
-      <c r="D175" s="5">
+      <c r="D175" s="7">
         <v>-8.6999999999999994E-2</v>
       </c>
       <c r="E175" s="4">
         <v>2000</v>
       </c>
       <c r="F175" s="6">
-        <f t="shared" si="8"/>
+        <f>E175*D175</f>
         <v>-174</v>
       </c>
     </row>
@@ -30577,304 +30782,304 @@
         <v>46009</v>
       </c>
       <c r="C176">
-        <f t="shared" si="7"/>
+        <f>INT((B176-$B$2)/7)</f>
         <v>6</v>
       </c>
-      <c r="D176" s="5">
+      <c r="D176" s="7">
         <v>0.76500000000000001</v>
       </c>
       <c r="E176" s="4">
         <v>2000</v>
       </c>
       <c r="F176" s="6">
-        <f t="shared" si="8"/>
+        <f>E176*D176</f>
         <v>1530</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B177" s="1">
-        <v>46013</v>
+        <v>46009</v>
       </c>
       <c r="C177">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="D177" s="5">
-        <v>1.4E-2</v>
+        <f>INT((B177-$B$2)/7)</f>
+        <v>6</v>
+      </c>
+      <c r="D177" s="7">
+        <v>-0.47299999999999998</v>
       </c>
       <c r="E177" s="4">
         <v>2000</v>
       </c>
       <c r="F177" s="6">
-        <f t="shared" si="8"/>
-        <v>28</v>
+        <f>E177*D177</f>
+        <v>-946</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B178" s="1">
-        <v>46028.666666666664</v>
+        <v>46013</v>
       </c>
       <c r="C178">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="D178" s="5">
-        <v>9.1999999999999998E-2</v>
+        <f>INT((B178-$B$2)/7)</f>
+        <v>7</v>
+      </c>
+      <c r="D178" s="7">
+        <v>1.4E-2</v>
       </c>
       <c r="E178" s="4">
         <v>2000</v>
       </c>
       <c r="F178" s="6">
-        <f t="shared" si="8"/>
-        <v>184</v>
+        <f>E178*D178</f>
+        <v>28</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B179" s="1">
-        <v>46029.666666666664</v>
+        <v>46028.666666666664</v>
       </c>
       <c r="C179">
-        <f t="shared" si="7"/>
+        <f>INT((B179-$B$2)/7)</f>
         <v>9</v>
       </c>
-      <c r="D179" s="5">
-        <v>-8.1000000000000003E-2</v>
+      <c r="D179" s="7">
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E179" s="4">
         <v>2000</v>
       </c>
       <c r="F179" s="6">
-        <f t="shared" si="8"/>
-        <v>-162</v>
+        <f>E179*D179</f>
+        <v>184</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B180" s="1">
-        <v>46030</v>
+        <v>46029.666666666664</v>
       </c>
       <c r="C180">
-        <f t="shared" si="7"/>
+        <f>INT((B180-$B$2)/7)</f>
         <v>9</v>
       </c>
-      <c r="D180" s="5">
-        <v>1.0999999999999999E-2</v>
+      <c r="D180" s="7">
+        <v>-8.1000000000000003E-2</v>
       </c>
       <c r="E180" s="4">
         <v>2000</v>
       </c>
       <c r="F180" s="6">
-        <f t="shared" si="8"/>
-        <v>22</v>
+        <f>E180*D180</f>
+        <v>-162</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B181" s="1">
-        <v>46030.354166666664</v>
+        <v>46030</v>
       </c>
       <c r="C181">
-        <f t="shared" si="7"/>
+        <f>INT((B181-$B$2)/7)</f>
         <v>9</v>
       </c>
-      <c r="D181" s="5">
-        <v>9.5000000000000001E-2</v>
+      <c r="D181" s="7">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E181" s="4">
         <v>2000</v>
       </c>
       <c r="F181" s="6">
-        <f t="shared" si="8"/>
-        <v>190</v>
+        <f>E181*D181</f>
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B182" s="1">
         <v>46030.354166666664</v>
       </c>
       <c r="C182">
-        <f t="shared" si="7"/>
+        <f>INT((B182-$B$2)/7)</f>
         <v>9</v>
       </c>
-      <c r="D182" s="5">
-        <v>-4.0000000000000001E-3</v>
+      <c r="D182" s="7">
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E182" s="4">
         <v>2000</v>
       </c>
       <c r="F182" s="6">
-        <f t="shared" si="8"/>
-        <v>-8</v>
+        <f>E182*D182</f>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B183" s="1">
-        <v>46034.354166666664</v>
+        <v>46030.354166666664</v>
       </c>
       <c r="C183">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D183" s="5">
-        <v>-4.4999999999999998E-2</v>
+        <f>INT((B183-$B$2)/7)</f>
+        <v>9</v>
+      </c>
+      <c r="D183" s="7">
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E183" s="4">
         <v>2000</v>
       </c>
       <c r="F183" s="6">
-        <f t="shared" si="8"/>
-        <v>-90</v>
+        <f>E183*D183</f>
+        <v>-8</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B184" s="1">
-        <v>46036.354166666664</v>
+        <v>46034.354166666664</v>
       </c>
       <c r="C184">
-        <f t="shared" si="7"/>
+        <f>INT((B184-$B$2)/7)</f>
         <v>10</v>
       </c>
-      <c r="D184" s="5">
-        <v>0.22600000000000001</v>
+      <c r="D184" s="7">
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="E184" s="4">
         <v>2000</v>
       </c>
       <c r="F184" s="6">
-        <f t="shared" si="8"/>
-        <v>452</v>
+        <f>E184*D184</f>
+        <v>-90</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B185" s="1">
-        <v>46036.666666666664</v>
+        <v>46036.354166666664</v>
       </c>
       <c r="C185">
-        <f t="shared" si="7"/>
+        <f>INT((B185-$B$2)/7)</f>
         <v>10</v>
       </c>
-      <c r="D185" s="5">
-        <v>0.32500000000000001</v>
+      <c r="D185" s="7">
+        <v>0.22600000000000001</v>
       </c>
       <c r="E185" s="4">
         <v>2000</v>
       </c>
       <c r="F185" s="6">
-        <f t="shared" si="8"/>
-        <v>650</v>
+        <f>E185*D185</f>
+        <v>452</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B186" s="1">
-        <v>46037.354166666664</v>
+        <v>46036.666666666664</v>
       </c>
       <c r="C186">
-        <f t="shared" si="7"/>
+        <f>INT((B186-$B$2)/7)</f>
         <v>10</v>
       </c>
-      <c r="D186" s="5">
-        <v>3.5000000000000003E-2</v>
+      <c r="D186" s="7">
+        <v>0.32500000000000001</v>
       </c>
       <c r="E186" s="4">
         <v>2000</v>
       </c>
       <c r="F186" s="6">
-        <f t="shared" si="8"/>
-        <v>70</v>
+        <f>E186*D186</f>
+        <v>650</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B187" s="1">
-        <v>46042.666666666664</v>
+        <v>46037.354166666664</v>
       </c>
       <c r="C187">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="D187" s="5">
-        <v>5.6000000000000001E-2</v>
+        <f>INT((B187-$B$2)/7)</f>
+        <v>10</v>
+      </c>
+      <c r="D187" s="7">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E187" s="4">
         <v>2000</v>
       </c>
       <c r="F187" s="6">
-        <f t="shared" si="8"/>
-        <v>112</v>
+        <f>E187*D187</f>
+        <v>70</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B188" s="1">
-        <v>46043.5625</v>
+        <v>46042.666666666664</v>
       </c>
       <c r="C188">
-        <f t="shared" si="7"/>
+        <f>INT((B188-$B$2)/7)</f>
         <v>11</v>
       </c>
-      <c r="D188" s="5">
-        <v>-4.9000000000000002E-2</v>
+      <c r="D188" s="7">
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="E188" s="4">
         <v>2000</v>
       </c>
       <c r="F188" s="6">
-        <f t="shared" si="8"/>
-        <v>-98</v>
+        <f>E188*D188</f>
+        <v>112</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B189" s="1">
-        <v>46044.354166666664</v>
+        <v>46043.5625</v>
       </c>
       <c r="C189">
-        <f t="shared" si="7"/>
+        <f>INT((B189-$B$2)/7)</f>
         <v>11</v>
       </c>
-      <c r="D189" s="5">
-        <v>-6.2E-2</v>
+      <c r="D189" s="7">
+        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="E189" s="4">
         <v>2000</v>
       </c>
       <c r="F189" s="6">
-        <f t="shared" si="8"/>
-        <v>-124</v>
+        <f>E189*D189</f>
+        <v>-98</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -30885,106 +31090,106 @@
         <v>46044.354166666664</v>
       </c>
       <c r="C190">
-        <f t="shared" si="7"/>
+        <f>INT((B190-$B$2)/7)</f>
         <v>11</v>
       </c>
-      <c r="D190" s="5">
+      <c r="D190" s="7">
         <v>9.4E-2</v>
       </c>
       <c r="E190" s="4">
         <v>2000</v>
       </c>
       <c r="F190" s="6">
-        <f t="shared" si="8"/>
+        <f>E190*D190</f>
         <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B191" s="1">
-        <v>46044.666666666664</v>
+        <v>46044.354166666664</v>
       </c>
       <c r="C191">
-        <f t="shared" si="7"/>
+        <f>INT((B191-$B$2)/7)</f>
         <v>11</v>
       </c>
-      <c r="D191" s="5">
-        <v>-0.104</v>
+      <c r="D191" s="7">
+        <v>-6.2E-2</v>
       </c>
       <c r="E191" s="4">
         <v>2000</v>
       </c>
       <c r="F191" s="6">
-        <f t="shared" si="8"/>
-        <v>-208</v>
+        <f>E191*D191</f>
+        <v>-124</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B192" s="1">
-        <v>46048.666666666664</v>
+        <v>46044.666666666664</v>
       </c>
       <c r="C192">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="D192" s="5">
-        <v>-0.17599999999999999</v>
+        <f>INT((B192-$B$2)/7)</f>
+        <v>11</v>
+      </c>
+      <c r="D192" s="7">
+        <v>-0.104</v>
       </c>
       <c r="E192" s="4">
         <v>2000</v>
       </c>
       <c r="F192" s="6">
-        <f t="shared" si="8"/>
-        <v>-352</v>
+        <f>E192*D192</f>
+        <v>-208</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B193" s="1">
-        <v>46049.666666666664</v>
+        <v>46048.666666666664</v>
       </c>
       <c r="C193">
-        <f t="shared" si="7"/>
+        <f>INT((B193-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D193" s="5">
-        <v>0.13200000000000001</v>
+      <c r="D193" s="7">
+        <v>-0.17599999999999999</v>
       </c>
       <c r="E193" s="4">
         <v>2000</v>
       </c>
       <c r="F193" s="6">
-        <f t="shared" si="8"/>
-        <v>264</v>
+        <f>E193*D193</f>
+        <v>-352</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B194" s="1">
-        <v>46050.354166666664</v>
+        <v>46049.666666666664</v>
       </c>
       <c r="C194">
-        <f t="shared" si="7"/>
+        <f>INT((B194-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D194" s="5">
-        <v>7.9000000000000001E-2</v>
+      <c r="D194" s="7">
+        <v>0.13200000000000001</v>
       </c>
       <c r="E194" s="4">
         <v>2000</v>
       </c>
       <c r="F194" s="6">
-        <f t="shared" ref="F194:F254" si="9">E194*D194</f>
-        <v>158</v>
+        <f>E194*D194</f>
+        <v>264</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -30995,17 +31200,17 @@
         <v>46050.354166666664</v>
       </c>
       <c r="C195">
-        <f t="shared" ref="C195:C254" si="10">INT((B195-$B$2)/7)</f>
+        <f>INT((B195-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D195" s="5">
+      <c r="D195" s="7">
         <v>-2E-3</v>
       </c>
       <c r="E195" s="4">
         <v>2000</v>
       </c>
       <c r="F195" s="6">
-        <f t="shared" si="9"/>
+        <f>E195*D195</f>
         <v>-4</v>
       </c>
     </row>
@@ -31017,546 +31222,546 @@
         <v>46050.354166666664</v>
       </c>
       <c r="C196">
-        <f t="shared" si="10"/>
+        <f>INT((B196-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D196" s="5">
+      <c r="D196" s="7">
         <v>-0.218</v>
       </c>
       <c r="E196" s="4">
         <v>2000</v>
       </c>
       <c r="F196" s="6">
-        <f t="shared" si="9"/>
+        <f>E196*D196</f>
         <v>-436</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B197" s="1">
-        <v>46050.666666666664</v>
+        <v>46050.354166666664</v>
       </c>
       <c r="C197">
-        <f t="shared" si="10"/>
+        <f>INT((B197-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D197" s="5">
-        <v>7.4999999999999997E-2</v>
+      <c r="D197" s="7">
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="E197" s="4">
         <v>2000</v>
       </c>
       <c r="F197" s="6">
-        <f t="shared" si="9"/>
-        <v>150</v>
+        <f>E197*D197</f>
+        <v>158</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B198" s="1">
         <v>46050.666666666664</v>
       </c>
       <c r="C198">
-        <f t="shared" si="10"/>
+        <f>INT((B198-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D198" s="5">
-        <v>0.09</v>
+      <c r="D198" s="7">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E198" s="4">
         <v>2000</v>
       </c>
       <c r="F198" s="6">
-        <f t="shared" si="9"/>
-        <v>180</v>
+        <f>E198*D198</f>
+        <v>150</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B199" s="1">
-        <v>46051.354166666664</v>
+        <v>46050.666666666664</v>
       </c>
       <c r="C199">
-        <f t="shared" si="10"/>
+        <f>INT((B199-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D199" s="5">
-        <v>6.0000000000000001E-3</v>
+      <c r="D199" s="7">
+        <v>0.09</v>
       </c>
       <c r="E199" s="4">
         <v>2000</v>
       </c>
       <c r="F199" s="6">
-        <f t="shared" si="9"/>
-        <v>12</v>
+        <f>E199*D199</f>
+        <v>180</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B200" s="1">
         <v>46051.354166666664</v>
       </c>
       <c r="C200">
-        <f t="shared" si="10"/>
+        <f>INT((B200-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D200" s="5">
-        <v>3.3000000000000002E-2</v>
+      <c r="D200" s="7">
+        <v>1.9E-2</v>
       </c>
       <c r="E200" s="4">
         <v>2000</v>
       </c>
       <c r="F200" s="6">
-        <f t="shared" si="9"/>
-        <v>66</v>
+        <f>E200*D200</f>
+        <v>38</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B201" s="1">
         <v>46051.354166666664</v>
       </c>
       <c r="C201">
-        <f t="shared" si="10"/>
+        <f>INT((B201-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D201" s="5">
-        <v>6.0999999999999999E-2</v>
+      <c r="D201" s="7">
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E201" s="4">
         <v>2000</v>
       </c>
       <c r="F201" s="6">
-        <f t="shared" si="9"/>
-        <v>122</v>
+        <f>E201*D201</f>
+        <v>72</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B202" s="1">
         <v>46051.354166666664</v>
       </c>
       <c r="C202">
-        <f t="shared" si="10"/>
+        <f>INT((B202-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D202" s="5">
-        <v>1.9E-2</v>
+      <c r="D202" s="7">
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E202" s="4">
         <v>2000</v>
       </c>
       <c r="F202" s="6">
-        <f t="shared" si="9"/>
-        <v>38</v>
+        <f>E202*D202</f>
+        <v>122</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B203" s="1">
         <v>46051.354166666664</v>
       </c>
       <c r="C203">
-        <f t="shared" si="10"/>
+        <f>INT((B203-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D203" s="5">
-        <v>3.5999999999999997E-2</v>
+      <c r="D203" s="7">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E203" s="4">
         <v>2000</v>
       </c>
       <c r="F203" s="6">
-        <f t="shared" si="9"/>
-        <v>72</v>
+        <f>E203*D203</f>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B204" s="1">
         <v>46051.354166666664</v>
       </c>
       <c r="C204">
-        <f t="shared" si="10"/>
+        <f>INT((B204-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D204" s="5">
-        <v>0.29399999999999998</v>
+      <c r="D204" s="7">
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E204" s="4">
         <v>2000</v>
       </c>
       <c r="F204" s="6">
-        <f t="shared" si="9"/>
-        <v>588</v>
+        <f>E204*D204</f>
+        <v>176</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B205" s="1">
         <v>46051.354166666664</v>
       </c>
       <c r="C205">
-        <f t="shared" si="10"/>
+        <f>INT((B205-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D205" s="5">
-        <v>8.7999999999999995E-2</v>
+      <c r="D205" s="7">
+        <v>0.29399999999999998</v>
       </c>
       <c r="E205" s="4">
         <v>2000</v>
       </c>
       <c r="F205" s="6">
-        <f t="shared" si="9"/>
-        <v>176</v>
+        <f>E205*D205</f>
+        <v>588</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B206" s="1">
-        <v>46051.666666666664</v>
+        <v>46051.354166666664</v>
       </c>
       <c r="C206">
-        <f t="shared" si="10"/>
+        <f>INT((B206-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D206" s="5">
-        <v>2.7E-2</v>
+      <c r="D206" s="7">
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E206" s="4">
         <v>2000</v>
       </c>
       <c r="F206" s="6">
-        <f t="shared" si="9"/>
-        <v>54</v>
+        <f>E206*D206</f>
+        <v>66</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B207" s="1">
         <v>46051.666666666664</v>
       </c>
       <c r="C207">
-        <f t="shared" si="10"/>
+        <f>INT((B207-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D207" s="5">
-        <v>-2.5999999999999999E-2</v>
+      <c r="D207" s="7">
+        <v>1.4E-2</v>
       </c>
       <c r="E207" s="4">
         <v>2000</v>
       </c>
       <c r="F207" s="6">
-        <f t="shared" si="9"/>
-        <v>-52</v>
+        <f>E207*D207</f>
+        <v>28</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B208" s="1">
         <v>46051.666666666664</v>
       </c>
       <c r="C208">
-        <f t="shared" si="10"/>
+        <f>INT((B208-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D208" s="5">
-        <v>1.4E-2</v>
+      <c r="D208" s="7">
+        <v>-0.191</v>
       </c>
       <c r="E208" s="4">
         <v>2000</v>
       </c>
       <c r="F208" s="6">
-        <f t="shared" si="9"/>
-        <v>28</v>
+        <f>E208*D208</f>
+        <v>-382</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B209" s="1">
         <v>46051.666666666664</v>
       </c>
       <c r="C209">
-        <f t="shared" si="10"/>
+        <f>INT((B209-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D209" s="5">
-        <v>-0.191</v>
+      <c r="D209" s="7">
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="E209" s="4">
         <v>2000</v>
       </c>
       <c r="F209" s="6">
-        <f t="shared" si="9"/>
-        <v>-382</v>
+        <f>E209*D209</f>
+        <v>-52</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B210" s="1">
-        <v>46052.354166666664</v>
+        <v>46051.666666666664</v>
       </c>
       <c r="C210">
-        <f t="shared" si="10"/>
+        <f>INT((B210-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D210" s="5">
-        <v>5.6000000000000001E-2</v>
+      <c r="D210" s="7">
+        <v>2.7E-2</v>
       </c>
       <c r="E210" s="4">
         <v>2000</v>
       </c>
       <c r="F210" s="6">
-        <f t="shared" si="9"/>
-        <v>112</v>
+        <f>E210*D210</f>
+        <v>54</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B211" s="1">
         <v>46052.354166666664</v>
       </c>
       <c r="C211">
-        <f t="shared" si="10"/>
+        <f>INT((B211-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D211" s="5">
-        <v>0.10299999999999999</v>
+      <c r="D211" s="7">
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="E211" s="4">
         <v>2000</v>
       </c>
       <c r="F211" s="6">
-        <f t="shared" si="9"/>
-        <v>206</v>
+        <f>E211*D211</f>
+        <v>112</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B212" s="1">
         <v>46052.354166666664</v>
       </c>
       <c r="C212">
-        <f t="shared" si="10"/>
+        <f>INT((B212-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D212" s="5">
-        <v>6.6000000000000003E-2</v>
+      <c r="D212" s="7">
+        <v>0.10299999999999999</v>
       </c>
       <c r="E212" s="4">
         <v>2000</v>
       </c>
       <c r="F212" s="6">
-        <f t="shared" si="9"/>
-        <v>132</v>
+        <f>E212*D212</f>
+        <v>206</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B213" s="1">
         <v>46052.354166666664</v>
       </c>
       <c r="C213">
-        <f t="shared" si="10"/>
+        <f>INT((B213-$B$2)/7)</f>
         <v>12</v>
       </c>
-      <c r="D213" s="5">
-        <v>-3.9E-2</v>
+      <c r="D213" s="7">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E213" s="4">
         <v>2000</v>
       </c>
       <c r="F213" s="6">
-        <f t="shared" si="9"/>
-        <v>-78</v>
+        <f>E213*D213</f>
+        <v>132</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B214" s="1">
-        <v>46055.875</v>
+        <v>46052.354166666664</v>
       </c>
       <c r="C214">
-        <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="D214" s="5">
-        <v>-2.5000000000000001E-2</v>
+        <f>INT((B214-$B$2)/7)</f>
+        <v>12</v>
+      </c>
+      <c r="D214" s="7">
+        <v>-3.9E-2</v>
       </c>
       <c r="E214" s="4">
         <v>2000</v>
       </c>
       <c r="F214" s="6">
-        <f t="shared" si="9"/>
-        <v>-50</v>
+        <f>E214*D214</f>
+        <v>-78</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B215" s="1">
-        <v>46056.5625</v>
+        <v>46055.875</v>
       </c>
       <c r="C215">
-        <f t="shared" si="10"/>
+        <f>INT((B215-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D215" s="5">
-        <v>-0.108</v>
+      <c r="D215" s="7">
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="E215" s="4">
         <v>2000</v>
       </c>
       <c r="F215" s="6">
-        <f t="shared" si="9"/>
-        <v>-216</v>
+        <f>E215*D215</f>
+        <v>-50</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B216" s="1">
         <v>46056.5625</v>
       </c>
       <c r="C216">
-        <f t="shared" si="10"/>
+        <f>INT((B216-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D216" s="5">
-        <v>-0.19900000000000001</v>
+      <c r="D216" s="7">
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="E216" s="4">
         <v>2000</v>
       </c>
       <c r="F216" s="6">
-        <f t="shared" si="9"/>
-        <v>-398</v>
+        <f>E216*D216</f>
+        <v>-130</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B217" s="1">
         <v>46056.5625</v>
       </c>
       <c r="C217">
-        <f t="shared" si="10"/>
+        <f>INT((B217-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D217" s="5">
-        <v>-6.5000000000000002E-2</v>
+      <c r="D217" s="7">
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E217" s="4">
         <v>2000</v>
       </c>
       <c r="F217" s="6">
-        <f t="shared" si="9"/>
-        <v>-130</v>
+        <f>E217*D217</f>
+        <v>72</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B218" s="1">
         <v>46056.5625</v>
       </c>
       <c r="C218">
-        <f t="shared" si="10"/>
+        <f>INT((B218-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D218" s="5">
-        <v>0.05</v>
+      <c r="D218" s="7">
+        <v>-0.19900000000000001</v>
       </c>
       <c r="E218" s="4">
         <v>2000</v>
       </c>
       <c r="F218" s="6">
-        <f t="shared" si="9"/>
-        <v>100</v>
+        <f>E218*D218</f>
+        <v>-398</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B219" s="1">
         <v>46056.5625</v>
       </c>
       <c r="C219">
-        <f t="shared" si="10"/>
+        <f>INT((B219-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D219" s="5">
-        <v>3.5999999999999997E-2</v>
+      <c r="D219" s="7">
+        <v>-0.108</v>
       </c>
       <c r="E219" s="4">
         <v>2000</v>
       </c>
       <c r="F219" s="6">
-        <f t="shared" si="9"/>
-        <v>72</v>
+        <f>E219*D219</f>
+        <v>-216</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B220" s="1">
-        <v>46056.875</v>
+        <v>46056.5625</v>
       </c>
       <c r="C220">
-        <f t="shared" si="10"/>
+        <f>INT((B220-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D220" s="5">
-        <v>-0.11799999999999999</v>
+      <c r="D220" s="7">
+        <v>0.05</v>
       </c>
       <c r="E220" s="4">
         <v>2000</v>
       </c>
       <c r="F220" s="6">
-        <f t="shared" si="9"/>
-        <v>-236</v>
+        <f>E220*D220</f>
+        <v>100</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -31567,106 +31772,106 @@
         <v>46056.875</v>
       </c>
       <c r="C221">
-        <f t="shared" si="10"/>
+        <f>INT((B221-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D221" s="5">
+      <c r="D221" s="7">
         <v>-0.08</v>
       </c>
       <c r="E221" s="4">
         <v>2000</v>
       </c>
       <c r="F221" s="6">
-        <f t="shared" si="9"/>
+        <f>E221*D221</f>
         <v>-160</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B222" s="1">
         <v>46056.875</v>
       </c>
       <c r="C222">
-        <f t="shared" si="10"/>
+        <f>INT((B222-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D222" s="5">
-        <v>4.3999999999999997E-2</v>
+      <c r="D222" s="7">
+        <v>-5.5E-2</v>
       </c>
       <c r="E222" s="4">
         <v>2000</v>
       </c>
       <c r="F222" s="6">
-        <f t="shared" si="9"/>
-        <v>88</v>
+        <f>E222*D222</f>
+        <v>-110</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>491</v>
+        <v>87</v>
       </c>
       <c r="B223" s="1">
         <v>46056.875</v>
       </c>
       <c r="C223">
-        <f t="shared" si="10"/>
+        <f>INT((B223-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D223" s="5">
-        <v>-5.5E-2</v>
+      <c r="D223" s="7">
+        <v>0.16300000000000001</v>
       </c>
       <c r="E223" s="4">
         <v>2000</v>
       </c>
       <c r="F223" s="6">
-        <f t="shared" si="9"/>
-        <v>-110</v>
+        <f>E223*D223</f>
+        <v>326</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>87</v>
+        <v>485</v>
       </c>
       <c r="B224" s="1">
         <v>46056.875</v>
       </c>
       <c r="C224">
-        <f t="shared" si="10"/>
+        <f>INT((B224-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D224" s="5">
-        <v>0.16300000000000001</v>
+      <c r="D224" s="7">
+        <v>-0.11799999999999999</v>
       </c>
       <c r="E224" s="4">
         <v>2000</v>
       </c>
       <c r="F224" s="6">
-        <f t="shared" si="9"/>
-        <v>326</v>
+        <f>E224*D224</f>
+        <v>-236</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>81</v>
+        <v>489</v>
       </c>
       <c r="B225" s="1">
         <v>46056.875</v>
       </c>
       <c r="C225">
-        <f t="shared" si="10"/>
+        <f>INT((B225-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D225" s="5">
-        <v>0.04</v>
+      <c r="D225" s="7">
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E225" s="4">
         <v>2000</v>
       </c>
       <c r="F225" s="6">
-        <f t="shared" si="9"/>
-        <v>80</v>
+        <f>E225*D225</f>
+        <v>88</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -31677,329 +31882,329 @@
         <v>46056.875</v>
       </c>
       <c r="C226">
-        <f t="shared" si="10"/>
+        <f>INT((B226-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D226" s="5">
+      <c r="D226" s="7">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="E226" s="4">
         <v>2000</v>
       </c>
       <c r="F226" s="6">
-        <f t="shared" si="9"/>
+        <f>E226*D226</f>
         <v>154</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>495</v>
+        <v>81</v>
       </c>
       <c r="B227" s="1">
-        <v>46057.5625</v>
+        <v>46056.875</v>
       </c>
       <c r="C227">
-        <f t="shared" si="10"/>
+        <f>INT((B227-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D227" s="5">
-        <v>1.0999999999999999E-2</v>
+      <c r="D227" s="7">
+        <v>0.04</v>
       </c>
       <c r="E227" s="4">
         <v>2000</v>
       </c>
       <c r="F227" s="6">
-        <f t="shared" si="9"/>
-        <v>22</v>
+        <f>E227*D227</f>
+        <v>80</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B228" s="1">
         <v>46057.5625</v>
       </c>
       <c r="C228">
-        <f t="shared" si="10"/>
+        <f>INT((B228-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D228" s="5">
-        <v>4.3999999999999997E-2</v>
+      <c r="D228" s="7">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E228" s="4">
         <v>2000</v>
       </c>
       <c r="F228" s="6">
-        <f t="shared" si="9"/>
-        <v>88</v>
+        <f>E228*D228</f>
+        <v>22</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B229" s="1">
         <v>46057.5625</v>
       </c>
       <c r="C229">
-        <f t="shared" si="10"/>
+        <f>INT((B229-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D229" s="5">
-        <v>9.0999999999999998E-2</v>
+      <c r="D229" s="7">
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E229" s="4">
         <v>2000</v>
       </c>
       <c r="F229" s="6">
-        <f t="shared" si="9"/>
-        <v>182</v>
+        <f>E229*D229</f>
+        <v>64</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B230" s="1">
         <v>46057.5625</v>
       </c>
       <c r="C230">
-        <f t="shared" si="10"/>
+        <f>INT((B230-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D230" s="5">
-        <v>-7.0000000000000007E-2</v>
+      <c r="D230" s="7">
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="E230" s="4">
         <v>2000</v>
       </c>
       <c r="F230" s="6">
-        <f t="shared" si="9"/>
-        <v>-140</v>
+        <f>E230*D230</f>
+        <v>182</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B231" s="1">
         <v>46057.5625</v>
       </c>
       <c r="C231">
-        <f t="shared" si="10"/>
+        <f>INT((B231-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D231" s="5">
-        <v>3.2000000000000001E-2</v>
+      <c r="D231" s="7">
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E231" s="4">
         <v>2000</v>
       </c>
       <c r="F231" s="6">
-        <f t="shared" si="9"/>
-        <v>64</v>
+        <f>E231*D231</f>
+        <v>88</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B232" s="1">
-        <v>46057.875</v>
+        <v>46057.5625</v>
       </c>
       <c r="C232">
-        <f t="shared" si="10"/>
+        <f>INT((B232-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D232" s="5">
-        <v>9.1999999999999998E-2</v>
+      <c r="D232" s="7">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="E232" s="4">
         <v>2000</v>
       </c>
       <c r="F232" s="6">
-        <f t="shared" si="9"/>
-        <v>184</v>
+        <f>E232*D232</f>
+        <v>-140</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B233" s="1">
         <v>46057.875</v>
       </c>
       <c r="C233">
-        <f t="shared" si="10"/>
+        <f>INT((B233-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D233" s="5">
-        <v>-1.4999999999999999E-2</v>
+      <c r="D233" s="7">
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E233" s="4">
         <v>2000</v>
       </c>
       <c r="F233" s="6">
-        <f t="shared" si="9"/>
-        <v>-30</v>
+        <f>E233*D233</f>
+        <v>184</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B234" s="1">
         <v>46057.875</v>
       </c>
       <c r="C234">
-        <f t="shared" si="10"/>
+        <f>INT((B234-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D234" s="5">
-        <v>0.25700000000000001</v>
+      <c r="D234" s="7">
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="E234" s="4">
         <v>2000</v>
       </c>
       <c r="F234" s="6">
-        <f t="shared" si="9"/>
-        <v>514</v>
+        <f>E234*D234</f>
+        <v>-158</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B235" s="1">
         <v>46057.875</v>
       </c>
       <c r="C235">
-        <f t="shared" si="10"/>
+        <f>INT((B235-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D235" s="5">
-        <v>0.11</v>
+      <c r="D235" s="7">
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="E235" s="4">
         <v>2000</v>
       </c>
       <c r="F235" s="6">
-        <f t="shared" si="9"/>
-        <v>220</v>
+        <f>E235*D235</f>
+        <v>-30</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>138</v>
+        <v>511</v>
       </c>
       <c r="B236" s="1">
         <v>46057.875</v>
       </c>
       <c r="C236">
-        <f t="shared" si="10"/>
+        <f>INT((B236-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D236" s="5">
-        <v>0.127</v>
+      <c r="D236" s="7">
+        <v>0.11</v>
       </c>
       <c r="E236" s="4">
         <v>2000</v>
       </c>
       <c r="F236" s="6">
-        <f t="shared" si="9"/>
-        <v>254</v>
+        <f>E236*D236</f>
+        <v>220</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B237" s="1">
         <v>46057.875</v>
       </c>
       <c r="C237">
-        <f t="shared" si="10"/>
+        <f>INT((B237-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D237" s="5">
-        <v>-7.9000000000000001E-2</v>
+      <c r="D237" s="7">
+        <v>0.25700000000000001</v>
       </c>
       <c r="E237" s="4">
         <v>2000</v>
       </c>
       <c r="F237" s="6">
-        <f t="shared" si="9"/>
-        <v>-158</v>
+        <f>E237*D237</f>
+        <v>514</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>515</v>
+        <v>138</v>
       </c>
       <c r="B238" s="1">
-        <v>46058.5625</v>
+        <v>46057.875</v>
       </c>
       <c r="C238">
-        <f t="shared" si="10"/>
+        <f>INT((B238-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D238" s="5">
-        <v>0</v>
+      <c r="D238" s="7">
+        <v>0.127</v>
       </c>
       <c r="E238" s="4">
         <v>2000</v>
       </c>
       <c r="F238" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>E238*D238</f>
+        <v>254</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B239" s="1">
         <v>46058.5625</v>
       </c>
       <c r="C239">
-        <f t="shared" si="10"/>
+        <f>INT((B239-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D239" s="5">
-        <v>7.4999999999999997E-2</v>
+      <c r="D239" s="7">
+        <v>-0.01</v>
       </c>
       <c r="E239" s="4">
         <v>2000</v>
       </c>
       <c r="F239" s="6">
-        <f t="shared" si="9"/>
-        <v>150</v>
+        <f>E239*D239</f>
+        <v>-20</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B240" s="1">
         <v>46058.5625</v>
       </c>
       <c r="C240">
-        <f t="shared" si="10"/>
+        <f>INT((B240-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D240" s="5">
-        <v>-0.218</v>
+      <c r="D240" s="7">
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E240" s="4">
         <v>2000</v>
       </c>
       <c r="F240" s="6">
-        <f t="shared" si="9"/>
-        <v>-436</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E240*D240</f>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>521</v>
       </c>
@@ -32007,175 +32212,175 @@
         <v>46058.5625</v>
       </c>
       <c r="C241">
-        <f t="shared" si="10"/>
+        <f>INT((B241-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D241" s="5">
+      <c r="D241" s="7">
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="E241" s="4">
         <v>2000</v>
       </c>
       <c r="F241" s="6">
-        <f t="shared" si="9"/>
+        <f>E241*D241</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B242" s="1">
         <v>46058.5625</v>
       </c>
       <c r="C242">
-        <f t="shared" si="10"/>
+        <f>INT((B242-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D242" s="5">
-        <v>-7.0000000000000001E-3</v>
+      <c r="D242" s="7">
+        <v>-0.218</v>
       </c>
       <c r="E242" s="4">
         <v>2000</v>
       </c>
       <c r="F242" s="6">
-        <f t="shared" si="9"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E242*D242</f>
+        <v>-436</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B243" s="1">
         <v>46058.5625</v>
       </c>
       <c r="C243">
-        <f t="shared" si="10"/>
+        <f>INT((B243-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D243" s="5">
-        <v>-0.01</v>
+      <c r="D243" s="7">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E243" s="4">
         <v>2000</v>
       </c>
       <c r="F243" s="6">
-        <f t="shared" si="9"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E243*D243</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B244" s="1">
         <v>46058.5625</v>
       </c>
       <c r="C244">
-        <f t="shared" si="10"/>
+        <f>INT((B244-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D244" s="5">
-        <v>6.0000000000000001E-3</v>
+      <c r="D244" s="7">
+        <v>0</v>
       </c>
       <c r="E244" s="4">
         <v>2000</v>
       </c>
       <c r="F244" s="6">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E244*D244</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B245" s="1">
-        <v>46058.875</v>
+        <v>46058.5625</v>
       </c>
       <c r="C245">
-        <f t="shared" si="10"/>
+        <f>INT((B245-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D245" s="5">
-        <v>2E-3</v>
+      <c r="D245" s="7">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E245" s="4">
         <v>2000</v>
       </c>
       <c r="F245" s="6">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E245*D245</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="B246" s="1">
         <v>46058.875</v>
       </c>
       <c r="C246">
-        <f t="shared" si="10"/>
+        <f>INT((B246-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D246" s="5">
-        <v>2.3E-2</v>
+      <c r="D246" s="7">
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="E246" s="4">
         <v>2000</v>
       </c>
       <c r="F246" s="6">
-        <f t="shared" si="9"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E246*D246</f>
+        <v>-106</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="B247" s="1">
         <v>46058.875</v>
       </c>
       <c r="C247">
-        <f t="shared" si="10"/>
+        <f>INT((B247-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D247" s="5">
-        <v>-7.0000000000000001E-3</v>
+      <c r="D247" s="7">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E247" s="4">
         <v>2000</v>
       </c>
       <c r="F247" s="6">
-        <f t="shared" si="9"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E247*D247</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B248" s="1">
         <v>46058.875</v>
       </c>
       <c r="C248">
-        <f t="shared" si="10"/>
+        <f>INT((B248-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D248" s="5">
-        <v>0.14399999999999999</v>
+      <c r="D248" s="7">
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E248" s="4">
         <v>2000</v>
       </c>
       <c r="F248" s="6">
-        <f t="shared" si="9"/>
-        <v>288</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E248*D248</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>537</v>
       </c>
@@ -32183,313 +32388,670 @@
         <v>46058.875</v>
       </c>
       <c r="C249">
-        <f t="shared" si="10"/>
+        <f>INT((B249-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D249" s="5">
+      <c r="D249" s="7">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="E249" s="4">
         <v>2000</v>
       </c>
       <c r="F249" s="6">
-        <f t="shared" si="9"/>
+        <f>E249*D249</f>
         <v>34</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B250" s="1">
         <v>46058.875</v>
       </c>
       <c r="C250">
-        <f t="shared" si="10"/>
+        <f>INT((B250-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D250" s="5">
-        <v>1.7999999999999999E-2</v>
+      <c r="D250" s="7">
+        <v>0.14399999999999999</v>
       </c>
       <c r="E250" s="4">
         <v>2000</v>
       </c>
       <c r="F250" s="6">
-        <f t="shared" si="9"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E250*D250</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B251" s="1">
         <v>46058.875</v>
       </c>
       <c r="C251">
-        <f t="shared" si="10"/>
+        <f>INT((B251-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D251" s="5">
-        <v>6.0000000000000001E-3</v>
+      <c r="D251" s="7">
+        <v>2.3E-2</v>
       </c>
       <c r="E251" s="4">
         <v>2000</v>
       </c>
       <c r="F251" s="6">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E251*D251</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B252" s="1">
         <v>46058.875</v>
       </c>
       <c r="C252">
-        <f t="shared" si="10"/>
+        <f>INT((B252-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D252" s="5">
-        <v>-5.2999999999999999E-2</v>
+      <c r="D252" s="7">
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E252" s="4">
         <v>2000</v>
       </c>
       <c r="F252" s="6">
-        <f t="shared" si="9"/>
-        <v>-106</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E252*D252</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="B253" s="1">
         <v>46058.875</v>
       </c>
       <c r="C253">
-        <f t="shared" si="10"/>
+        <f>INT((B253-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D253" s="5">
-        <v>-3.0000000000000001E-3</v>
+      <c r="D253" s="7">
+        <v>2E-3</v>
       </c>
       <c r="E253" s="4">
         <v>2000</v>
       </c>
       <c r="F253" s="6">
-        <f t="shared" si="9"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E253*D253</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="B254" s="1">
-        <v>46059.5625</v>
+        <v>46058.875</v>
       </c>
       <c r="C254">
-        <f t="shared" si="10"/>
+        <f>INT((B254-$B$2)/7)</f>
         <v>13</v>
       </c>
-      <c r="D254" s="5">
-        <v>-5.0000000000000001E-3</v>
+      <c r="D254" s="7">
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E254" s="4">
         <v>2000</v>
       </c>
       <c r="F254" s="6">
-        <f t="shared" si="9"/>
+        <f>E254*D254</f>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>547</v>
+      </c>
+      <c r="B255" s="1">
+        <v>46059.5625</v>
+      </c>
+      <c r="C255">
+        <f t="shared" ref="C255:C303" si="2">INT((B255-$B$2)/7)</f>
+        <v>13</v>
+      </c>
+      <c r="D255" s="7">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E255" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F255" s="6">
+        <f t="shared" ref="F255:F303" si="3">E255*D255</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B255" s="1"/>
-      <c r="E255" s="4">
-        <f>SUM(E2:E254)</f>
-        <v>506000</v>
-      </c>
-      <c r="F255" s="6">
-        <f>SUM(F2:F254)</f>
-        <v>21902</v>
-      </c>
-      <c r="G255" s="5">
-        <f>F255/E255</f>
-        <v>4.3284584980237156E-2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B256" s="1"/>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>549</v>
+      </c>
+      <c r="B256" s="1">
+        <v>46062.875</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D256" s="7">
+        <v>2.9000000000000001E-2</v>
+      </c>
       <c r="E256" s="4">
-        <f>E255/C254</f>
-        <v>38923.076923076922</v>
-      </c>
-      <c r="F256" s="6"/>
-      <c r="G256" s="5">
-        <f>F255/E256</f>
-        <v>0.562699604743083</v>
-      </c>
-    </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B257" s="1"/>
-      <c r="E257" s="4"/>
-      <c r="F257" s="6"/>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B258" s="1"/>
-      <c r="E258" s="4"/>
-      <c r="F258" s="6"/>
-    </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B259" s="1"/>
-      <c r="E259" s="4"/>
-      <c r="F259" s="6"/>
-    </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B260" s="1"/>
-      <c r="E260" s="4"/>
-      <c r="F260" s="6"/>
-    </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B261" s="1"/>
-      <c r="E261" s="4"/>
-      <c r="F261" s="6"/>
-    </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B262" s="1"/>
-      <c r="E262" s="4"/>
-      <c r="F262" s="6"/>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B263" s="1"/>
-      <c r="E263" s="4"/>
-      <c r="F263" s="6"/>
-    </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B264" s="1"/>
-      <c r="E264" s="4"/>
-      <c r="F264" s="6"/>
-    </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B265" s="1"/>
-      <c r="E265" s="4"/>
-      <c r="F265" s="6"/>
-    </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B266" s="1"/>
-      <c r="E266" s="4"/>
-      <c r="F266" s="6"/>
-    </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B267" s="1"/>
-      <c r="E267" s="4"/>
-      <c r="F267" s="6"/>
-    </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B268" s="1"/>
-      <c r="E268" s="4"/>
-      <c r="F268" s="6"/>
-    </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B269" s="1"/>
-      <c r="E269" s="4"/>
-      <c r="F269" s="6"/>
-    </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B270" s="1"/>
-      <c r="E270" s="4"/>
-      <c r="F270" s="6"/>
-    </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B271" s="1"/>
-      <c r="E271" s="4"/>
-      <c r="F271" s="6"/>
-    </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B272" s="1"/>
-      <c r="E272" s="4"/>
-      <c r="F272" s="6"/>
-    </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B273" s="1"/>
-      <c r="E273" s="4"/>
-      <c r="F273" s="6"/>
-    </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B274" s="1"/>
-      <c r="E274" s="4"/>
-      <c r="F274" s="6"/>
-    </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B275" s="1"/>
-      <c r="E275" s="4"/>
-      <c r="F275" s="6"/>
-    </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B276" s="1"/>
-      <c r="E276" s="4"/>
-      <c r="F276" s="6"/>
-    </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+      <c r="F256" s="6">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>551</v>
+      </c>
+      <c r="B257" s="1">
+        <v>46062.875</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D257" s="7">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="E257" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F257" s="6">
+        <f t="shared" si="3"/>
+        <v>-116</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>559</v>
+      </c>
+      <c r="B258" s="1">
+        <v>46063.5625</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D258" s="7">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="E258" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F258" s="6">
+        <f t="shared" si="3"/>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>557</v>
+      </c>
+      <c r="B259" s="1">
+        <v>46063.5625</v>
+      </c>
+      <c r="C259">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D259" s="7">
+        <v>-7.8E-2</v>
+      </c>
+      <c r="E259" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F259" s="6">
+        <f t="shared" si="3"/>
+        <v>-156</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>553</v>
+      </c>
+      <c r="B260" s="1">
+        <v>46063.5625</v>
+      </c>
+      <c r="C260">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D260" s="7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E260" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F260" s="6">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>561</v>
+      </c>
+      <c r="B261" s="1">
+        <v>46063.5625</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D261" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E261" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F261" s="6">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>555</v>
+      </c>
+      <c r="B262" s="1">
+        <v>46063.5625</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D262" s="7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E262" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F262" s="6">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>563</v>
+      </c>
+      <c r="B263" s="1">
+        <v>46063.875</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D263" s="7">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="E263" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F263" s="6">
+        <f t="shared" si="3"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>565</v>
+      </c>
+      <c r="B264" s="1">
+        <v>46063.875</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D264" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="E264" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F264" s="6">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>569</v>
+      </c>
+      <c r="B265" s="1">
+        <v>46063.875</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D265" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="E265" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F265" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>567</v>
+      </c>
+      <c r="B266" s="1">
+        <v>46063.875</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D266" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E266" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F266" s="6">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>573</v>
+      </c>
+      <c r="B267" s="1">
+        <v>46064.5625</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D267" s="7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E267" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F267" s="6">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>571</v>
+      </c>
+      <c r="B268" s="1">
+        <v>46064.5625</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D268" s="7">
+        <v>-0.02</v>
+      </c>
+      <c r="E268" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F268" s="6">
+        <f t="shared" si="3"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>583</v>
+      </c>
+      <c r="B269" s="1">
+        <v>46064.875</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D269" s="7">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="E269" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F269" s="6">
+        <f t="shared" si="3"/>
+        <v>-118</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>587</v>
+      </c>
+      <c r="B270" s="1">
+        <v>46064.875</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D270" s="7">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E270" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F270" s="6">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>585</v>
+      </c>
+      <c r="B271" s="1">
+        <v>46064.875</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D271" s="7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E271" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F271" s="6">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>589</v>
+      </c>
+      <c r="B272" s="1">
+        <v>46064.875</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D272" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E272" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F272" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>581</v>
+      </c>
+      <c r="B273" s="1">
+        <v>46064.875</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D273" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E273" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F273" s="6">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>577</v>
+      </c>
+      <c r="B274" s="1">
+        <v>46064.875</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D274" s="7">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="E274" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F274" s="6">
+        <f t="shared" si="3"/>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>575</v>
+      </c>
+      <c r="B275" s="1">
+        <v>46064.875</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D275" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E275" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F275" s="6">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>579</v>
+      </c>
+      <c r="B276" s="1">
+        <v>46064.875</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D276" s="7">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="E276" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F276" s="6">
+        <f t="shared" si="3"/>
+        <v>-164</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B277" s="1"/>
       <c r="E277" s="4"/>
       <c r="F277" s="6"/>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B278" s="1"/>
       <c r="E278" s="4"/>
       <c r="F278" s="6"/>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B279" s="1"/>
       <c r="E279" s="4"/>
       <c r="F279" s="6"/>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B280" s="1"/>
       <c r="E280" s="4"/>
       <c r="F280" s="6"/>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B281" s="1"/>
       <c r="E281" s="4"/>
       <c r="F281" s="6"/>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B282" s="1"/>
       <c r="E282" s="4"/>
       <c r="F282" s="6"/>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B283" s="1"/>
       <c r="E283" s="4"/>
       <c r="F283" s="6"/>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B284" s="1"/>
       <c r="E284" s="4"/>
       <c r="F284" s="6"/>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B285" s="1"/>
       <c r="E285" s="4"/>
       <c r="F285" s="6"/>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B286" s="1"/>
       <c r="E286" s="4"/>
       <c r="F286" s="6"/>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B287" s="1"/>
       <c r="E287" s="4"/>
       <c r="F287" s="6"/>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
       <c r="E288" s="4"/>
       <c r="F288" s="6"/>
@@ -32504,6 +33066,71 @@
       <c r="E290" s="4"/>
       <c r="F290" s="6"/>
     </row>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B291" s="1"/>
+      <c r="E291" s="4"/>
+      <c r="F291" s="6"/>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B292" s="1"/>
+      <c r="E292" s="4"/>
+      <c r="F292" s="6"/>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B293" s="1"/>
+      <c r="E293" s="4"/>
+      <c r="F293" s="6"/>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B294" s="1"/>
+      <c r="E294" s="4"/>
+      <c r="F294" s="6"/>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B295" s="1"/>
+      <c r="E295" s="4"/>
+      <c r="F295" s="6"/>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B296" s="1"/>
+      <c r="E296" s="4"/>
+      <c r="F296" s="6"/>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B297" s="1"/>
+      <c r="E297" s="4"/>
+      <c r="F297" s="6"/>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B298" s="1"/>
+      <c r="E298" s="4"/>
+      <c r="F298" s="6"/>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B299" s="1"/>
+      <c r="E299" s="4"/>
+      <c r="F299" s="6"/>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B300" s="1"/>
+      <c r="E300" s="4"/>
+      <c r="F300" s="6"/>
+    </row>
+    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B301" s="1"/>
+      <c r="E301" s="4"/>
+      <c r="F301" s="6"/>
+    </row>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B302" s="1"/>
+      <c r="E302" s="4"/>
+      <c r="F302" s="6"/>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B303" s="1"/>
+      <c r="E303" s="4"/>
+      <c r="F303" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
